--- a/database design/mysql/insert 数据表.xlsx
+++ b/database design/mysql/insert 数据表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7BD65B6F-3542-411F-B3B5-9274D07492AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2FD6D8F4-E429-4666-B3C2-AA1655452368}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Administrator" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="404">
   <si>
     <t>appointment_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1130,10 +1130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15:40:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1379,10 +1375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16:40:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1588,6 +1580,46 @@
   </si>
   <si>
     <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-07-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-07-03</t>
+  </si>
+  <si>
+    <t>2018-07-04</t>
+  </si>
+  <si>
+    <t>2018-07-05</t>
+  </si>
+  <si>
+    <t>2018-07-06</t>
+  </si>
+  <si>
+    <t>2018-07-07</t>
+  </si>
+  <si>
+    <t>2018-07-08</t>
+  </si>
+  <si>
+    <t>2018-07-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-07-09</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2113,7 +2145,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2137,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2161,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2185,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2209,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2233,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2257,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2281,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2298,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8EAA1E-666C-49B5-872E-1D707857266F}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2337,10 +2369,10 @@
         <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2364,10 +2396,10 @@
         <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2391,10 +2423,10 @@
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2418,10 +2450,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2445,10 +2477,10 @@
         <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2472,10 +2504,10 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2499,10 +2531,10 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2526,10 +2558,10 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2750,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1F9F45-FCED-43F1-84F8-296F483D4CF4}">
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A152"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2785,7 +2817,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>26</v>
@@ -2800,7 +2832,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>30</v>
@@ -2812,13 +2844,13 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("insert into Shift values('",B3,"', '",C3,"','",D3,"', '",E3,"', '",F3,"', '",G3,"', '",H3,"', '",I3,"', '",J3,"');")</f>
-        <v>insert into Shift values('LLAW0730', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '7:30:00', '7:50:00', '50', '');</v>
+        <v>insert into Shift values('LLAW0730', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '7:30:00', '7:50:00', '5', '');</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>179</v>
@@ -2833,22 +2865,22 @@
         <v>204</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="I3" s="2">
-        <v>50</v>
+        <v>334</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A67" si="0">CONCATENATE("insert into Shift values('",B4,"', '",C4,"','",D4,"', '",E4,"', '",F4,"', '",G4,"', '",H4,"', '",I4,"', '",J4,"');")</f>
-        <v>insert into Shift values('LLAW0745', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '7:45:00', '8:05:00', '50', '');</v>
+        <v>insert into Shift values('LLAW0745', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '7:45:00', '8:05:00', '5', '');</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>179</v>
@@ -2863,22 +2895,22 @@
         <v>205</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="I4" s="2">
-        <v>50</v>
+        <v>335</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW0800', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '8:00:00', '8:20:00', '50', '');</v>
+        <v>insert into Shift values('LLAW0800', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '8:00:00', '8:20:00', '5', '');</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>179</v>
@@ -2893,22 +2925,22 @@
         <v>206</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="I5" s="2">
-        <v>50</v>
+        <v>336</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW0815', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '8:15:00', '8:35:00', '50', '');</v>
+        <v>insert into Shift values('LLAW0815', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '8:15:00', '8:35:00', '5', '');</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>179</v>
@@ -2923,22 +2955,22 @@
         <v>207</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="I6" s="2">
-        <v>50</v>
+        <v>337</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW0825', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '8:25:00', '8:45:00', '50', '');</v>
+        <v>insert into Shift values('LLAW0825', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '8:25:00', '8:45:00', '5', '');</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>179</v>
@@ -2953,22 +2985,22 @@
         <v>208</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I7" s="2">
-        <v>50</v>
+        <v>338</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW0840', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '8:40:00', '9:00:00', '50', '');</v>
+        <v>insert into Shift values('LLAW0840', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '8:40:00', '9:00:00', '5', '');</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>179</v>
@@ -2983,22 +3015,22 @@
         <v>209</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="I8" s="2">
-        <v>50</v>
+        <v>339</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW0900', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '9:00:00', '9:20:00', '50', '');</v>
+        <v>insert into Shift values('LLAW0900', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '9:00:00', '9:20:00', '5', '');</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>179</v>
@@ -3010,25 +3042,25 @@
         <v>259</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I9" s="2">
-        <v>50</v>
+      <c r="I9" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW0920', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '9:20:00', '9:40:00', '50', '');</v>
+        <v>insert into Shift values('LLAW0920', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '9:20:00', '9:40:00', '5', '');</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>179</v>
@@ -3045,20 +3077,20 @@
       <c r="H10" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="I10" s="2">
-        <v>50</v>
+      <c r="I10" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW0940', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '9:40:00', '10:00:00', '50', '');</v>
+        <v>insert into Shift values('LLAW0940', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '9:40:00', '10:00:00', '5', '');</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>179</v>
@@ -3075,20 +3107,20 @@
       <c r="H11" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="I11" s="2">
-        <v>50</v>
+      <c r="I11" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1000', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '10:00:00', '10:20:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1000', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '10:00:00', '10:20:00', '5', '');</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>179</v>
@@ -3105,20 +3137,20 @@
       <c r="H12" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="I12" s="2">
-        <v>50</v>
+      <c r="I12" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1020', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '10:20:00', '10:40:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1020', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '10:20:00', '10:40:00', '5', '');</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>179</v>
@@ -3135,20 +3167,20 @@
       <c r="H13" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I13" s="2">
-        <v>50</v>
+      <c r="I13" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1040', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '10:40:00', '11:00:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1040', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '10:40:00', '11:00:00', '5', '');</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>179</v>
@@ -3165,20 +3197,20 @@
       <c r="H14" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="I14" s="2">
-        <v>50</v>
+      <c r="I14" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1100', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '11:00:00', '11:20:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1100', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '11:00:00', '11:20:00', '5', '');</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>179</v>
@@ -3195,20 +3227,20 @@
       <c r="H15" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I15" s="2">
-        <v>50</v>
+      <c r="I15" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1120', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '11:20:00', '11:40:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1120', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '11:20:00', '11:40:00', '5', '');</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>179</v>
@@ -3225,20 +3257,20 @@
       <c r="H16" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I16" s="2">
-        <v>50</v>
+      <c r="I16" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1140', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '11:40:00', '12:00:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1140', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '11:40:00', '12:00:00', '5', '');</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>179</v>
@@ -3255,20 +3287,20 @@
       <c r="H17" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="I17" s="2">
-        <v>50</v>
+      <c r="I17" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1200', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '12:00:00', '13:00:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1200', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '12:00:00', '13:00:00', '5', '');</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>179</v>
@@ -3286,19 +3318,19 @@
         <v>270</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1300', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '13:00:00', '13:20:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1300', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '13:00:00', '13:20:00', '5', '');</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>179</v>
@@ -3315,20 +3347,20 @@
       <c r="H19" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="I19" s="2">
-        <v>50</v>
+      <c r="I19" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1320', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '13:20:00', '13:40:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1320', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '13:20:00', '13:40:00', '5', '');</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>179</v>
@@ -3345,20 +3377,20 @@
       <c r="H20" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="I20" s="2">
-        <v>50</v>
+      <c r="I20" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1340', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '13:40:00', '14:00:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1340', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '13:40:00', '14:00:00', '5', '');</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>179</v>
@@ -3375,20 +3407,20 @@
       <c r="H21" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="I21" s="2">
-        <v>50</v>
+      <c r="I21" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1400', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '14:00:00', '14:20:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1400', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '14:00:00', '14:20:00', '5', '');</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>179</v>
@@ -3405,20 +3437,20 @@
       <c r="H22" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="I22" s="2">
-        <v>50</v>
+      <c r="I22" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1420', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '14:20:00', '14:40:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1420', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '14:20:00', '14:40:00', '5', '');</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>179</v>
@@ -3435,20 +3467,20 @@
       <c r="H23" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I23" s="2">
-        <v>50</v>
+      <c r="I23" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1440', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '14:40:00', '15:00:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1440', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '14:40:00', '15:00:00', '5', '');</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>179</v>
@@ -3465,20 +3497,20 @@
       <c r="H24" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="I24" s="2">
-        <v>50</v>
+      <c r="I24" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1500', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '15:00:00', '15:20:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1500', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '15:00:00', '15:20:00', '5', '');</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>179</v>
@@ -3495,20 +3527,20 @@
       <c r="H25" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="I25" s="2">
-        <v>50</v>
+      <c r="I25" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1520', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '15:20:00', '15:40:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1520', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '15:20:00', '15:40:00', '5', '');</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>179</v>
@@ -3523,22 +3555,22 @@
         <v>277</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="I26" s="2">
-        <v>50</v>
+        <v>278</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1540', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '15:40:00', '16:00:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1540', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '15:40:00', '16:00:00', '5', '');</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>179</v>
@@ -3550,25 +3582,25 @@
         <v>259</v>
       </c>
       <c r="G27" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>278</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1600', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '16:00:00', '16:20:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1600', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '16:00:00', '16:20:00', '5', '');</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>179</v>
@@ -3580,25 +3612,25 @@
         <v>259</v>
       </c>
       <c r="G28" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="I28" s="2">
-        <v>50</v>
+      <c r="I28" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1620', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '16:20:00', '16:40:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1620', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '16:20:00', '16:40:00', '5', '');</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>179</v>
@@ -3610,25 +3642,25 @@
         <v>259</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="I29" s="2">
-        <v>50</v>
+        <v>340</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1630', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '16:30:00', '16:50:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1630', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '16:30:00', '16:50:00', '5', '');</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>179</v>
@@ -3640,25 +3672,25 @@
         <v>259</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="I30" s="2">
-        <v>50</v>
+        <v>341</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1700', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:00:00', '17:20:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1700', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:00:00', '17:20:00', '5', '');</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>179</v>
@@ -3670,25 +3702,25 @@
         <v>259</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="I31" s="2">
-        <v>50</v>
+        <v>342</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1715', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:15:00', '17:35:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1715', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:15:00', '17:35:00', '5', '');</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>179</v>
@@ -3700,25 +3732,25 @@
         <v>259</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="I32" s="2">
-        <v>50</v>
+        <v>343</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1730', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:30:00', '17:50:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1730', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:30:00', '17:50:00', '5', '');</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>179</v>
@@ -3730,25 +3762,25 @@
         <v>259</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="I33" s="2">
-        <v>50</v>
+        <v>344</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1750', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:50:00', '18:10:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1750', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:50:00', '18:10:00', '5', '');</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>179</v>
@@ -3760,25 +3792,25 @@
         <v>259</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="I34" s="2">
-        <v>50</v>
+        <v>345</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1800', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '18:00:00', '18:20:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1800', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '18:00:00', '18:20:00', '5', '');</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>179</v>
@@ -3790,25 +3822,25 @@
         <v>259</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="I35" s="2">
-        <v>50</v>
+        <v>346</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1900', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '19:00:00', '19:20:00', '50', '');</v>
+        <v>insert into Shift values('LLAW1900', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '19:00:00', '19:20:00', '5', '');</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>179</v>
@@ -3820,25 +3852,25 @@
         <v>259</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="I36" s="2">
-        <v>50</v>
+        <v>347</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW2010', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '20:10:00', '20:30:00', '50', '');</v>
+        <v>insert into Shift values('LLAW2010', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '20:10:00', '20:30:00', '5', '');</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>179</v>
@@ -3850,25 +3882,25 @@
         <v>259</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="I37" s="2">
-        <v>50</v>
+        <v>348</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW0830', '4','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '8:30:00', '8:50:00', '50', '');</v>
+        <v>insert into Shift values('LLCW0830', '4','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '8:30:00', '8:50:00', '5', '');</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>180</v>
@@ -3885,20 +3917,20 @@
       <c r="H38" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="I38" s="2">
-        <v>50</v>
+      <c r="I38" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW0850', '1','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '8:50:00', '9:10:00', '50', '');</v>
+        <v>insert into Shift values('LLCW0850', '1','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '8:50:00', '9:10:00', '5', '');</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>180</v>
@@ -3915,20 +3947,20 @@
       <c r="H39" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I39" s="2">
-        <v>50</v>
+      <c r="I39" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW0910', '2','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '9:10:00', '9:30:00', '50', '');</v>
+        <v>insert into Shift values('LLCW0910', '2','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '9:10:00', '9:30:00', '5', '');</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>180</v>
@@ -3945,20 +3977,20 @@
       <c r="H40" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="I40" s="2">
-        <v>50</v>
+      <c r="I40" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW0930', '3','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '9:30:00', '9:50:00', '50', '');</v>
+        <v>insert into Shift values('LLCW0930', '3','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '9:30:00', '9:50:00', '5', '');</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>180</v>
@@ -3970,25 +4002,25 @@
         <v>259</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="I41" s="2">
-        <v>50</v>
+        <v>349</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1000', '4','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '10:00:00', '10:20:00', '50', '');</v>
+        <v>insert into Shift values('LLCW1000', '4','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '10:00:00', '10:20:00', '5', '');</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>180</v>
@@ -4003,22 +4035,22 @@
         <v>263</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="I42" s="2">
-        <v>50</v>
+        <v>350</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1030', '1','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '10:30:00', '10:50:00', '50', '');</v>
+        <v>insert into Shift values('LLCW1030', '1','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '10:30:00', '10:50:00', '5', '');</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>180</v>
@@ -4030,25 +4062,25 @@
         <v>259</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="I43" s="2">
-        <v>50</v>
+        <v>351</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1100', '2','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '11:00:00', '11:20:00', '50', '');</v>
+        <v>insert into Shift values('LLCW1100', '2','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '11:00:00', '11:20:00', '5', '');</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>180</v>
@@ -4063,22 +4095,22 @@
         <v>266</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="I44" s="2">
-        <v>50</v>
+        <v>352</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1130', '3','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '11:30:00', '11:50:00', '50', '');</v>
+        <v>insert into Shift values('LLCW1130', '3','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '11:30:00', '11:50:00', '5', '');</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>180</v>
@@ -4090,25 +4122,25 @@
         <v>259</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I45" s="2">
-        <v>50</v>
+        <v>353</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1230', '4','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '12:30:00', '12:50:00', '50', '');</v>
+        <v>insert into Shift values('LLCW1230', '4','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '12:30:00', '12:50:00', '5', '');</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>180</v>
@@ -4120,25 +4152,25 @@
         <v>259</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="I46" s="2">
-        <v>50</v>
+        <v>354</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1330', '1','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '13:30:00', '13:50:00', '50', '');</v>
+        <v>insert into Shift values('LLCW1330', '1','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '13:30:00', '13:50:00', '5', '');</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>180</v>
@@ -4150,25 +4182,25 @@
         <v>259</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="I47" s="2">
-        <v>50</v>
+        <v>355</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1400', '2','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '14:00:00', '14:20:00', '50', '');</v>
+        <v>insert into Shift values('LLCW1400', '2','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '14:00:00', '14:20:00', '5', '');</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>180</v>
@@ -4183,22 +4215,22 @@
         <v>273</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="I48" s="2">
-        <v>50</v>
+        <v>356</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1430', '3','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '14:30:00', '14:50:00', '50', '');</v>
+        <v>insert into Shift values('LLCW1430', '3','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '14:30:00', '14:50:00', '5', '');</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>180</v>
@@ -4210,25 +4242,25 @@
         <v>259</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="I49" s="2">
-        <v>50</v>
+        <v>357</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1500', '4','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '15:00:00', '15:20:00', '50', '');</v>
+        <v>insert into Shift values('LLCW1500', '4','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '15:00:00', '15:20:00', '5', '');</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>180</v>
@@ -4243,22 +4275,22 @@
         <v>276</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="I50" s="2">
-        <v>50</v>
+        <v>358</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1530', '1','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '15:30:00', '15:50:00', '50', '');</v>
+        <v>insert into Shift values('LLCW1530', '1','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '15:30:00', '15:50:00', '5', '');</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>180</v>
@@ -4270,25 +4302,25 @@
         <v>259</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="I51" s="2">
-        <v>50</v>
+        <v>359</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1600', '2','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '16:00:00', '16:20:00', '50', '');</v>
+        <v>insert into Shift values('LLCW1600', '2','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '16:00:00', '16:20:00', '5', '');</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>180</v>
@@ -4300,25 +4332,25 @@
         <v>259</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="I52" s="2">
-        <v>50</v>
+        <v>360</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1630', '3','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '16:30:00', '16:50:00', '50', '');</v>
+        <v>insert into Shift values('LLCW1630', '3','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '16:30:00', '16:50:00', '5', '');</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>180</v>
@@ -4330,25 +4362,25 @@
         <v>259</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="I53" s="2">
-        <v>50</v>
+        <v>341</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAH0815', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '8:15:00', '8:35:00', '50', '');</v>
+        <v>insert into Shift values('LLAH0815', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '8:15:00', '8:35:00', '5', '');</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>179</v>
@@ -4357,28 +4389,28 @@
         <v>181</v>
       </c>
       <c r="F54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>207</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="I54" s="2">
-        <v>50</v>
+        <v>337</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAH0930', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '9:30:00', '9:50:00', '50', '');</v>
+        <v>insert into Shift values('LLAH0930', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '9:30:00', '9:50:00', '5', '');</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>179</v>
@@ -4387,28 +4419,28 @@
         <v>181</v>
       </c>
       <c r="F55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>213</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="I55" s="2">
-        <v>50</v>
+        <v>349</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAH1030', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '10:30:00', '10:50:00', '50', '');</v>
+        <v>insert into Shift values('LLAH1030', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '10:30:00', '10:50:00', '5', '');</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>179</v>
@@ -4417,28 +4449,28 @@
         <v>181</v>
       </c>
       <c r="F56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>214</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="I56" s="2">
-        <v>50</v>
+        <v>351</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAH1130', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '11:30:00', '11:50:00', '50', '');</v>
+        <v>insert into Shift values('LLAH1130', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '11:30:00', '11:50:00', '5', '');</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>179</v>
@@ -4447,28 +4479,28 @@
         <v>181</v>
       </c>
       <c r="F57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I57" s="2">
-        <v>50</v>
+        <v>353</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAH1500', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '15:00:00', '15:20:00', '50', '');</v>
+        <v>insert into Shift values('LLAH1500', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '15:00:00', '15:20:00', '5', '');</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>179</v>
@@ -4477,28 +4509,28 @@
         <v>181</v>
       </c>
       <c r="F58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>276</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="I58" s="2">
-        <v>50</v>
+        <v>358</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAH1630', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '16:30:00', '16:50:00', '50', '');</v>
+        <v>insert into Shift values('LLAH1630', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '16:30:00', '16:50:00', '5', '');</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>179</v>
@@ -4507,28 +4539,28 @@
         <v>181</v>
       </c>
       <c r="F59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="I59" s="2">
-        <v>50</v>
+        <v>341</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAH1800', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '18:00:00', '18:20:00', '50', '');</v>
+        <v>insert into Shift values('LLAH1800', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '18:00:00', '18:20:00', '5', '');</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>179</v>
@@ -4537,28 +4569,28 @@
         <v>181</v>
       </c>
       <c r="F60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="I60" s="2">
-        <v>50</v>
+        <v>346</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCH0845', '3','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '8:45:00', '9:05:00', '50', '');</v>
+        <v>insert into Shift values('LLCH0845', '3','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '8:45:00', '9:05:00', '5', '');</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>180</v>
@@ -4567,28 +4599,28 @@
         <v>182</v>
       </c>
       <c r="F61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>215</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="I61" s="2">
-        <v>50</v>
+        <v>361</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCH1000', '4','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '10:00:00', '10:20:00', '50', '');</v>
+        <v>insert into Shift values('LLCH1000', '4','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '10:00:00', '10:20:00', '5', '');</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>180</v>
@@ -4597,28 +4629,28 @@
         <v>182</v>
       </c>
       <c r="F62" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>216</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="I62" s="2">
-        <v>50</v>
+        <v>350</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCH1100', '1','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '11:00:00', '11:20:00', '50', '');</v>
+        <v>insert into Shift values('LLCH1100', '1','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '11:00:00', '11:20:00', '5', '');</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>180</v>
@@ -4627,28 +4659,28 @@
         <v>182</v>
       </c>
       <c r="F63" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>217</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="I63" s="2">
-        <v>50</v>
+        <v>352</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCH1200', '2','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '12:00:00', '12:20:00', '50', '');</v>
+        <v>insert into Shift values('LLCH1200', '2','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '12:00:00', '12:20:00', '5', '');</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>180</v>
@@ -4657,28 +4689,28 @@
         <v>182</v>
       </c>
       <c r="F64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>269</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="I64" s="2">
-        <v>50</v>
+        <v>362</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCH1400', '3','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '14:00:00', '14:20:00', '50', '');</v>
+        <v>insert into Shift values('LLCH1400', '3','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '14:00:00', '14:20:00', '5', '');</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>180</v>
@@ -4687,28 +4719,28 @@
         <v>182</v>
       </c>
       <c r="F65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>273</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="I65" s="2">
-        <v>50</v>
+        <v>356</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCH1600', '4','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '16:00:00', '16:20:00', '50', '');</v>
+        <v>insert into Shift values('LLCH1600', '4','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '16:00:00', '16:20:00', '5', '');</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>180</v>
@@ -4717,28 +4749,28 @@
         <v>182</v>
       </c>
       <c r="F66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="I66" s="2">
-        <v>50</v>
+        <v>360</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCH1715', '1','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '17:15:00', '17:35:00', '50', '');</v>
+        <v>insert into Shift values('LLCH1715', '1','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '17:15:00', '17:35:00', '5', '');</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>180</v>
@@ -4747,28 +4779,28 @@
         <v>182</v>
       </c>
       <c r="F67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="I67" s="2">
-        <v>50</v>
+        <v>343</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" ref="A68:A131" si="1">CONCATENATE("insert into Shift values('",B68,"', '",C68,"','",D68,"', '",E68,"', '",F68,"', '",G68,"', '",H68,"', '",I68,"', '",J68,"');")</f>
-        <v>insert into Shift values('MXWD0640A', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '6:40:00', '7:40:00', '50', '');</v>
+        <v>insert into Shift values('MXWD0640A', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '6:40:00', '7:40:00', '5', '');</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>183</v>
@@ -4783,22 +4815,22 @@
         <v>218</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="I68" s="2">
-        <v>50</v>
+        <v>363</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD0640B', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '6:40:00', '7:40:00', '50', '');</v>
+        <v>insert into Shift values('MXWD0640B', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '6:40:00', '7:40:00', '5', '');</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>183</v>
@@ -4813,22 +4845,22 @@
         <v>218</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="I69" s="2">
-        <v>50</v>
+        <v>363</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD0715A', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '7:15:00', '8:15:00', '50', '');</v>
+        <v>insert into Shift values('MXWD0715A', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '7:15:00', '8:15:00', '5', '');</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>183</v>
@@ -4840,25 +4872,25 @@
         <v>259</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="I70" s="2">
-        <v>50</v>
+        <v>364</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD0715B', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '7:15:00', '8:15:00', '50', '');</v>
+        <v>insert into Shift values('MXWD0715B', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '7:15:00', '8:15:00', '5', '');</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>183</v>
@@ -4870,25 +4902,25 @@
         <v>259</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="I71" s="2">
-        <v>50</v>
+        <v>364</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD0830', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '8:30:00', '9:30:00', '50', '');</v>
+        <v>insert into Shift values('MXWD0830', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '8:30:00', '9:30:00', '5', '');</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>183</v>
@@ -4900,25 +4932,25 @@
         <v>259</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="I72" s="2">
-        <v>50</v>
+        <v>365</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1010A', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '10:10:00', '11:10:00', '50', '');</v>
+        <v>insert into Shift values('MXWD1010A', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '10:10:00', '11:10:00', '5', '');</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>183</v>
@@ -4930,25 +4962,25 @@
         <v>259</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I73" s="2">
-        <v>50</v>
+        <v>366</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1010B', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '10:10:00', '11:10:00', '50', '');</v>
+        <v>insert into Shift values('MXWD1010B', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '10:10:00', '11:10:00', '5', '');</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>183</v>
@@ -4960,25 +4992,25 @@
         <v>259</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I74" s="2">
-        <v>50</v>
+        <v>366</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1215A', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '12:15:00', '13:15:00', '50', '');</v>
+        <v>insert into Shift values('MXWD1215A', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '12:15:00', '13:15:00', '5', '');</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>183</v>
@@ -4990,25 +5022,25 @@
         <v>259</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I75" s="2">
-        <v>50</v>
+        <v>367</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1215B', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '12:15:00', '13:15:00', '50', '');</v>
+        <v>insert into Shift values('MXWD1215B', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '12:15:00', '13:15:00', '5', '');</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>183</v>
@@ -5020,25 +5052,25 @@
         <v>259</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I76" s="2">
-        <v>50</v>
+        <v>367</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1215C', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '12:15:00', '13:15:00', '50', '');</v>
+        <v>insert into Shift values('MXWD1215C', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '12:15:00', '13:15:00', '5', '');</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>183</v>
@@ -5050,25 +5082,25 @@
         <v>259</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I77" s="2">
-        <v>50</v>
+        <v>367</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1410A', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '14:10:00', '15:10:00', '50', '');</v>
+        <v>insert into Shift values('MXWD1410A', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '14:10:00', '15:10:00', '5', '');</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>183</v>
@@ -5080,25 +5112,25 @@
         <v>259</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="I78" s="2">
-        <v>50</v>
+        <v>368</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1410B', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '14:10:00', '15:10:00', '50', '');</v>
+        <v>insert into Shift values('MXWD1410B', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '14:10:00', '15:10:00', '5', '');</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>183</v>
@@ -5110,25 +5142,25 @@
         <v>259</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="I79" s="2">
-        <v>50</v>
+        <v>368</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1600A', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '16:00:00', '17:00:00', '50', '');</v>
+        <v>insert into Shift values('MXWD1600A', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '16:00:00', '17:00:00', '5', '');</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>183</v>
@@ -5140,25 +5172,25 @@
         <v>259</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I80" s="2">
-        <v>50</v>
+        <v>369</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1600B', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '16:00:00', '17:00:00', '50', '');</v>
+        <v>insert into Shift values('MXWD1600B', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '16:00:00', '17:00:00', '5', '');</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>183</v>
@@ -5170,25 +5202,25 @@
         <v>259</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I81" s="2">
-        <v>50</v>
+        <v>369</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1600C', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '16:00:00', '17:00:00', '50', '');</v>
+        <v>insert into Shift values('MXWD1600C', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '16:00:00', '17:00:00', '5', '');</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>183</v>
@@ -5200,25 +5232,25 @@
         <v>259</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="I82" s="2">
-        <v>50</v>
+        <v>369</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1700A', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '17:00:00', '18:00:00', '50', '直达徐汇校区,途径罗阳、上中、天钥、交大新村 ');</v>
+        <v>insert into Shift values('MXWD1700A', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '17:00:00', '18:00:00', '5', '直达徐汇校区,途径罗阳、上中、天钥、交大新村 ');</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>183</v>
@@ -5230,13 +5262,13 @@
         <v>259</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I83" s="2">
-        <v>50</v>
+        <v>370</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>200</v>
@@ -5245,13 +5277,13 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1700B', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '17:00:00', '18:00:00', '50', '直达田林');</v>
+        <v>insert into Shift values('MXWD1700B', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '17:00:00', '18:00:00', '5', '直达田林');</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>183</v>
@@ -5263,13 +5295,13 @@
         <v>259</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I84" s="2">
-        <v>50</v>
+        <v>370</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J84" s="8" t="s">
         <v>192</v>
@@ -5278,13 +5310,13 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1700C', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '17:00:00', '18:00:00', '50', '直达古美');</v>
+        <v>insert into Shift values('MXWD1700C', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '17:00:00', '18:00:00', '5', '直达古美');</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>183</v>
@@ -5296,13 +5328,13 @@
         <v>259</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I85" s="2">
-        <v>50</v>
+        <v>370</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J85" s="8" t="s">
         <v>193</v>
@@ -5311,13 +5343,13 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1830A', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '18:30:00', '19:30:00', '50', '');</v>
+        <v>insert into Shift values('MXWD1830A', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '18:30:00', '19:30:00', '5', '');</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>183</v>
@@ -5329,25 +5361,25 @@
         <v>259</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="I86" s="2">
-        <v>50</v>
+        <v>371</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1830B', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '18:30:00', '19:30:00', '50', '');</v>
+        <v>insert into Shift values('MXWD1830B', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '18:30:00', '19:30:00', '5', '');</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>183</v>
@@ -5359,25 +5391,25 @@
         <v>259</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="I87" s="2">
-        <v>50</v>
+        <v>371</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD2040A', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '20:40:00', '21:40:00', '50', '');</v>
+        <v>insert into Shift values('MXWD2040A', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '20:40:00', '21:40:00', '5', '');</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>183</v>
@@ -5389,25 +5421,25 @@
         <v>259</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="I88" s="2">
-        <v>50</v>
+        <v>372</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD204B', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '20:40:00', '21:40:00', '50', '');</v>
+        <v>insert into Shift values('MXWD204B', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '20:40:00', '21:40:00', '5', '');</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>183</v>
@@ -5419,25 +5451,25 @@
         <v>259</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="I89" s="2">
-        <v>50</v>
+        <v>372</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWE0730', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWeekendAndLegalHoliday', '7:30:00', '8:30:00', '50', '');</v>
+        <v>insert into Shift values('MXWE0730', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWeekendAndLegalHoliday', '7:30:00', '8:30:00', '5', '');</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>183</v>
@@ -5446,28 +5478,28 @@
         <v>184</v>
       </c>
       <c r="F90" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>204</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I90" s="2">
-        <v>50</v>
+        <v>333</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWE1630', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWeekendAndLegalHoliday', '12:15:00', '13:15:00', '50', '');</v>
+        <v>insert into Shift values('MXWE1630', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWeekendAndLegalHoliday', '12:15:00', '13:15:00', '5', '');</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>183</v>
@@ -5476,28 +5508,28 @@
         <v>184</v>
       </c>
       <c r="F91" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>219</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I91" s="2">
-        <v>50</v>
+        <v>367</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHD0730', '2','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '7:30:00', '8:30:00', '50', '');</v>
+        <v>insert into Shift values('MXHD0730', '2','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '7:30:00', '8:30:00', '5', '');</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>183</v>
@@ -5506,28 +5538,28 @@
         <v>184</v>
       </c>
       <c r="F92" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>204</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I92" s="2">
-        <v>50</v>
+        <v>333</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHD1215', '3','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '12:15:00', '13:15:00', '50', '');</v>
+        <v>insert into Shift values('MXHD1215', '3','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '12:15:00', '13:15:00', '5', '');</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>183</v>
@@ -5536,28 +5568,28 @@
         <v>184</v>
       </c>
       <c r="F93" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>219</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I93" s="2">
-        <v>50</v>
+        <v>367</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHD1630A', '4','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '16:30:00', '17:30:00', '50', '直达徐汇校区,途径罗阳、上中、天钥、交大新村');</v>
+        <v>insert into Shift values('MXHD1630A', '4','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '16:30:00', '17:30:00', '5', '直达徐汇校区,途径罗阳、上中、天钥、交大新村');</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>183</v>
@@ -5566,16 +5598,16 @@
         <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I94" s="2">
-        <v>50</v>
+        <v>373</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J94" s="8" t="s">
         <v>191</v>
@@ -5584,13 +5616,13 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHD1630B', '1','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '16:30:00', '17:30:00', '50', '直达田林');</v>
+        <v>insert into Shift values('MXHD1630B', '1','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '16:30:00', '17:30:00', '5', '直达田林');</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>183</v>
@@ -5599,16 +5631,16 @@
         <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I95" s="2">
-        <v>50</v>
+        <v>373</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J95" s="8" t="s">
         <v>192</v>
@@ -5617,13 +5649,13 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHD1630C', '2','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '16:30:00', '17:30:00', '50', '直达古美');</v>
+        <v>insert into Shift values('MXHD1630C', '2','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '16:30:00', '17:30:00', '5', '直达古美');</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>183</v>
@@ -5632,16 +5664,16 @@
         <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I96" s="2">
-        <v>50</v>
+        <v>373</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J96" s="8" t="s">
         <v>193</v>
@@ -5650,13 +5682,13 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHD1730', '3','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '17:30:00', '18:30:00', '50', '');</v>
+        <v>insert into Shift values('MXHD1730', '3','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '17:30:00', '18:30:00', '5', '');</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>183</v>
@@ -5665,28 +5697,28 @@
         <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="I97" s="2">
-        <v>50</v>
+        <v>374</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHD2000', '4','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '20:00:00', '21:00:00', '50', '');</v>
+        <v>insert into Shift values('MXHD2000', '4','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '20:00:00', '21:00:00', '5', '');</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>183</v>
@@ -5695,28 +5727,28 @@
         <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="I98" s="2">
-        <v>50</v>
+        <v>375</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHE0730', '1','MinHangToXuHui', '闵行到徐汇', 'HolidayWeekend', '7:30:00', '8:30:00', '50', '');</v>
+        <v>insert into Shift values('MXHE0730', '1','MinHangToXuHui', '闵行到徐汇', 'HolidayWeekend', '7:30:00', '8:30:00', '5', '');</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>183</v>
@@ -5725,28 +5757,28 @@
         <v>184</v>
       </c>
       <c r="F99" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>204</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="I99" s="2">
-        <v>50</v>
+        <v>333</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHE1630', '2','MinHangToXuHui', '闵行到徐汇', 'HolidayWeekend', '16:30:00', '17:30:00', '50', '');</v>
+        <v>insert into Shift values('MXHE1630', '2','MinHangToXuHui', '闵行到徐汇', 'HolidayWeekend', '16:30:00', '17:30:00', '5', '');</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>183</v>
@@ -5755,28 +5787,28 @@
         <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>220</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="I100" s="2">
-        <v>50</v>
+        <v>373</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0645A', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '6:45:00', '7:45:00', '50', '天钥路始发，途径上中、罗阳至闵行 ');</v>
+        <v>insert into Shift values('XMWD0645A', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '6:45:00', '7:45:00', '5', '天钥路始发，途径上中、罗阳至闵行 ');</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>185</v>
@@ -5791,10 +5823,10 @@
         <v>221</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="I101" s="2">
-        <v>50</v>
+        <v>376</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J101" s="8" t="s">
         <v>199</v>
@@ -5803,13 +5835,13 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0645B', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '6:45:00', '7:45:00', '50', '田林始发，途径古美至闵行');</v>
+        <v>insert into Shift values('XMWD0645B', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '6:45:00', '7:45:00', '5', '田林始发，途径古美至闵行');</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>132</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>185</v>
@@ -5824,10 +5856,10 @@
         <v>221</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="I102" s="2">
-        <v>50</v>
+        <v>376</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J102" s="8" t="s">
         <v>194</v>
@@ -5836,13 +5868,13 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0700A', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:00:00', '8:00:00', '50', '徐汇校区始发');</v>
+        <v>insert into Shift values('XMWD0700A', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:00:00', '8:00:00', '5', '徐汇校区始发');</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>133</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>185</v>
@@ -5857,10 +5889,10 @@
         <v>222</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="I103" s="2">
-        <v>50</v>
+        <v>377</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J103" s="8" t="s">
         <v>195</v>
@@ -5869,13 +5901,13 @@
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0700B', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:00:00', '8:00:00', '50', '交大新村始发');</v>
+        <v>insert into Shift values('XMWD0700B', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:00:00', '8:00:00', '5', '交大新村始发');</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>185</v>
@@ -5890,10 +5922,10 @@
         <v>222</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="I104" s="2">
-        <v>50</v>
+        <v>377</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J104" s="8" t="s">
         <v>196</v>
@@ -5902,13 +5934,13 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0730A', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '50', '徐汇校区始发');</v>
+        <v>insert into Shift values('XMWD0730A', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '5', '徐汇校区始发');</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>185</v>
@@ -5920,13 +5952,13 @@
         <v>259</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I105" s="2">
-        <v>50</v>
+        <v>333</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J105" s="8" t="s">
         <v>195</v>
@@ -5935,13 +5967,13 @@
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0730B', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '50', '交大新村始发');</v>
+        <v>insert into Shift values('XMWD0730B', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '5', '交大新村始发');</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>136</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>185</v>
@@ -5953,13 +5985,13 @@
         <v>259</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I106" s="2">
-        <v>50</v>
+        <v>333</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J106" s="8" t="s">
         <v>196</v>
@@ -5968,13 +6000,13 @@
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0730C', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '50', '田林始发');</v>
+        <v>insert into Shift values('XMWD0730C', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '5', '田林始发');</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>185</v>
@@ -5989,10 +6021,10 @@
         <v>203</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I107" s="2">
-        <v>50</v>
+        <v>333</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J107" s="8" t="s">
         <v>197</v>
@@ -6001,13 +6033,13 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0730D', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '50', '古美始发');</v>
+        <v>insert into Shift values('XMWD0730D', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '5', '古美始发');</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>185</v>
@@ -6022,10 +6054,10 @@
         <v>203</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I108" s="2">
-        <v>50</v>
+        <v>333</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J108" s="8" t="s">
         <v>198</v>
@@ -6034,13 +6066,13 @@
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0900A', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '9:00:00', '10:00:00', '50', '');</v>
+        <v>insert into Shift values('XMWD0900A', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '9:00:00', '10:00:00', '5', '');</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>139</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>185</v>
@@ -6055,22 +6087,22 @@
         <v>260</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="I109" s="2">
-        <v>50</v>
+        <v>378</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0900B', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '9:00:00', '10:00:00', '50', '');</v>
+        <v>insert into Shift values('XMWD0900B', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '9:00:00', '10:00:00', '5', '');</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>185</v>
@@ -6085,22 +6117,22 @@
         <v>260</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="I110" s="2">
-        <v>50</v>
+        <v>378</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0900C', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '9:00:00', '10:00:00', '50', '');</v>
+        <v>insert into Shift values('XMWD0900C', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '9:00:00', '10:00:00', '5', '');</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>141</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>185</v>
@@ -6115,22 +6147,22 @@
         <v>260</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="I111" s="2">
-        <v>50</v>
+        <v>378</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1010', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '10:10:00', '11:10:00', '50', '');</v>
+        <v>insert into Shift values('XMWD1010', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '10:10:00', '11:10:00', '5', '');</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>185</v>
@@ -6142,25 +6174,25 @@
         <v>259</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I112" s="2">
-        <v>50</v>
+        <v>366</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1200A', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '12:00:00', '13:00:00', '50', '直达，途径交大新村');</v>
+        <v>insert into Shift values('XMWD1200A', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '12:00:00', '13:00:00', '5', '直达，途径交大新村');</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>185</v>
@@ -6175,10 +6207,10 @@
         <v>269</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="I113" s="2">
-        <v>50</v>
+        <v>379</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J113" s="8" t="s">
         <v>201</v>
@@ -6187,13 +6219,13 @@
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1200B', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '12:00:00', '13:00:00', '50', '直达，途径交大新村');</v>
+        <v>insert into Shift values('XMWD1200B', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '12:00:00', '13:00:00', '5', '直达，途径交大新村');</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>185</v>
@@ -6208,10 +6240,10 @@
         <v>269</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="I114" s="2">
-        <v>50</v>
+        <v>379</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J114" s="8" t="s">
         <v>201</v>
@@ -6220,13 +6252,13 @@
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1300A', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '13:00:00', '14:00:00', '50', '');</v>
+        <v>insert into Shift values('XMWD1300A', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '13:00:00', '14:00:00', '5', '');</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>185</v>
@@ -6241,22 +6273,22 @@
         <v>270</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="I115" s="2">
-        <v>50</v>
+        <v>380</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1300B', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '13:00:00', '14:00:00', '50', '');</v>
+        <v>insert into Shift values('XMWD1300B', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '13:00:00', '14:00:00', '5', '');</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>185</v>
@@ -6271,22 +6303,22 @@
         <v>270</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="I116" s="2">
-        <v>50</v>
+        <v>380</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1300C', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '13:00:00', '14:00:00', '50', '');</v>
+        <v>insert into Shift values('XMWD1300C', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '13:00:00', '14:00:00', '5', '');</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>185</v>
@@ -6301,22 +6333,22 @@
         <v>270</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="I117" s="2">
-        <v>50</v>
+        <v>380</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1500A', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '15:00:00', '16:00:00', '50', '');</v>
+        <v>insert into Shift values('XMWD1500A', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '15:00:00', '16:00:00', '5', '');</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>185</v>
@@ -6331,22 +6363,22 @@
         <v>276</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="I118" s="2">
-        <v>50</v>
+        <v>381</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1500B', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '15:00:00', '16:00:00', '50', '');</v>
+        <v>insert into Shift values('XMWD1500B', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '15:00:00', '16:00:00', '5', '');</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>185</v>
@@ -6361,22 +6393,22 @@
         <v>276</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="I119" s="2">
-        <v>50</v>
+        <v>381</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1700A', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '17:00:00', '18:00:00', '50', '');</v>
+        <v>insert into Shift values('XMWD1700A', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '17:00:00', '18:00:00', '5', '');</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>185</v>
@@ -6388,25 +6420,25 @@
         <v>259</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I120" s="2">
-        <v>50</v>
+        <v>370</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1700B', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '17:00:00', '18:00:00', '50', '');</v>
+        <v>insert into Shift values('XMWD1700B', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '17:00:00', '18:00:00', '5', '');</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>185</v>
@@ -6418,25 +6450,25 @@
         <v>259</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I121" s="2">
-        <v>50</v>
+        <v>370</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1700C', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '17:00:00', '18:00:00', '50', '');</v>
+        <v>insert into Shift values('XMWD1700C', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '17:00:00', '18:00:00', '5', '');</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>152</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>185</v>
@@ -6448,25 +6480,25 @@
         <v>259</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I122" s="2">
-        <v>50</v>
+        <v>370</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1800A', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '18:00:00', '19:00:00', '50', '');</v>
+        <v>insert into Shift values('XMWD1800A', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '18:00:00', '19:00:00', '5', '');</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>185</v>
@@ -6478,25 +6510,25 @@
         <v>259</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="I123" s="2">
-        <v>50</v>
+        <v>382</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1800B', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '18:00:00', '19:00:00', '50', '');</v>
+        <v>insert into Shift values('XMWD1800B', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '18:00:00', '19:00:00', '5', '');</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>154</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>185</v>
@@ -6508,25 +6540,25 @@
         <v>259</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="I124" s="2">
-        <v>50</v>
+        <v>382</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD2000A', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '20:00:00', '21:00:00', '50', '');</v>
+        <v>insert into Shift values('XMWD2000A', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '20:00:00', '21:00:00', '5', '');</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>185</v>
@@ -6538,25 +6570,25 @@
         <v>259</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="I125" s="2">
-        <v>50</v>
+        <v>375</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD2000B', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '20:00:00', '21:00:00', '50', '');</v>
+        <v>insert into Shift values('XMWD2000B', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '20:00:00', '21:00:00', '5', '');</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>185</v>
@@ -6568,25 +6600,25 @@
         <v>259</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="I126" s="2">
-        <v>50</v>
+        <v>375</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD2130A', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '21:30:00', '22:30:00', '50', '');</v>
+        <v>insert into Shift values('XMWD2130A', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '21:30:00', '22:30:00', '5', '');</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>157</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>185</v>
@@ -6598,25 +6630,25 @@
         <v>259</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="I127" s="2">
-        <v>50</v>
+        <v>383</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD2130B', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '21:30:00', '22:30:00', '50', '');</v>
+        <v>insert into Shift values('XMWD2130B', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '21:30:00', '22:30:00', '5', '');</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>185</v>
@@ -6628,25 +6660,25 @@
         <v>259</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="I128" s="2">
-        <v>50</v>
+        <v>383</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWE0830', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWeekendAndLegalHoliday', '8:30:00', '9:30:00', '50', '');</v>
+        <v>insert into Shift values('XMWE0830', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWeekendAndLegalHoliday', '8:30:00', '9:30:00', '5', '');</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>159</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>185</v>
@@ -6655,28 +6687,28 @@
         <v>186</v>
       </c>
       <c r="F129" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>210</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="I129" s="2">
-        <v>50</v>
+        <v>365</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWE1730', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWeekendAndLegalHoliday', '17:30:00', '18:30:00', '50', '');</v>
+        <v>insert into Shift values('XMWE1730', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWeekendAndLegalHoliday', '17:30:00', '18:30:00', '5', '');</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>185</v>
@@ -6685,28 +6717,28 @@
         <v>186</v>
       </c>
       <c r="F130" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>223</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="I130" s="2">
-        <v>50</v>
+        <v>374</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMHD0730A', '1','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '50', '直达闵行，途径天钥、上中、罗阳');</v>
+        <v>insert into Shift values('XMHD0730A', '1','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '5', '直达闵行，途径天钥、上中、罗阳');</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>161</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>185</v>
@@ -6715,16 +6747,16 @@
         <v>186</v>
       </c>
       <c r="F131" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>204</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I131" s="2">
-        <v>50</v>
+        <v>333</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>202</v>
@@ -6733,13 +6765,13 @@
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" ref="A132:A152" si="2">CONCATENATE("insert into Shift values('",B132,"', '",C132,"','",D132,"', '",E132,"', '",F132,"', '",G132,"', '",H132,"', '",I132,"', '",J132,"');")</f>
-        <v>insert into Shift values('XMHD0730B', '2','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '50', '交大新村始发');</v>
+        <v>insert into Shift values('XMHD0730B', '2','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '5', '交大新村始发');</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>185</v>
@@ -6748,16 +6780,16 @@
         <v>186</v>
       </c>
       <c r="F132" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>204</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I132" s="2">
-        <v>50</v>
+        <v>333</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J132" s="8" t="s">
         <v>196</v>
@@ -6766,13 +6798,13 @@
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('XMHD0730C', '3','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '50', '田林始发');</v>
+        <v>insert into Shift values('XMHD0730C', '3','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '5', '田林始发');</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>163</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>185</v>
@@ -6781,16 +6813,16 @@
         <v>186</v>
       </c>
       <c r="F133" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>203</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I133" s="2">
-        <v>50</v>
+        <v>333</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>197</v>
@@ -6799,13 +6831,13 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('XMHD0730D', '4','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '50', '古美始发');</v>
+        <v>insert into Shift values('XMHD0730D', '4','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '5', '古美始发');</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>185</v>
@@ -6814,16 +6846,16 @@
         <v>186</v>
       </c>
       <c r="F134" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>203</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I134" s="2">
-        <v>50</v>
+        <v>333</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>198</v>
@@ -6832,13 +6864,13 @@
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('XMHD0830', '1','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '8:30:00', '9:30:00', '50', '古美始发');</v>
+        <v>insert into Shift values('XMHD0830', '1','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '8:30:00', '9:30:00', '5', '古美始发');</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>165</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>185</v>
@@ -6847,16 +6879,16 @@
         <v>186</v>
       </c>
       <c r="F135" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="I135" s="2">
-        <v>50</v>
+        <v>365</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="J135" s="8" t="s">
         <v>198</v>
@@ -6865,13 +6897,13 @@
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('XMHD1315', '2','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '13:15:00', '14:15:00', '50', '');</v>
+        <v>insert into Shift values('XMHD1315', '2','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '13:15:00', '14:15:00', '5', '');</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>166</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>185</v>
@@ -6880,28 +6912,28 @@
         <v>186</v>
       </c>
       <c r="F136" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="I136" s="2">
-        <v>50</v>
+        <v>384</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('XMHD1630', '3','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '16:30:00', '17:30:00', '50', '');</v>
+        <v>insert into Shift values('XMHD1630', '3','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '16:30:00', '17:30:00', '5', '');</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>167</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>185</v>
@@ -6910,28 +6942,28 @@
         <v>186</v>
       </c>
       <c r="F137" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I137" s="2">
-        <v>50</v>
+        <v>373</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('XMHD2100', '4','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '21:00:00', '22:00:00', '50', '');</v>
+        <v>insert into Shift values('XMHD2100', '4','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '21:00:00', '22:00:00', '5', '');</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>168</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>185</v>
@@ -6940,28 +6972,28 @@
         <v>186</v>
       </c>
       <c r="F138" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="I138" s="2">
-        <v>50</v>
+        <v>385</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('XMHE0830', '1','XuHuiToMinHang', '徐汇到闵行', 'HolidayWeekend', '8:30:00', '9:30:00', '50', '');</v>
+        <v>insert into Shift values('XMHE0830', '1','XuHuiToMinHang', '徐汇到闵行', 'HolidayWeekend', '8:30:00', '9:30:00', '5', '');</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>185</v>
@@ -6970,28 +7002,28 @@
         <v>186</v>
       </c>
       <c r="F139" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>210</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="I139" s="2">
-        <v>50</v>
+        <v>365</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('XMHE1730', '2','XuHuiToMinHang', '徐汇到闵行', 'HolidayWeekend', '17:30:00', '18:30:00', '50', '');</v>
+        <v>insert into Shift values('XMHE1730', '2','XuHuiToMinHang', '徐汇到闵行', 'HolidayWeekend', '17:30:00', '18:30:00', '5', '');</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>185</v>
@@ -7000,28 +7032,28 @@
         <v>186</v>
       </c>
       <c r="F140" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>223</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="I140" s="2">
-        <v>50</v>
+        <v>374</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('QMWD0700', '3','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '7:00:00', '8:00:00', '50', '');</v>
+        <v>insert into Shift values('QMWD0700', '3','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '7:00:00', '8:00:00', '5', '');</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>171</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>187</v>
@@ -7036,22 +7068,22 @@
         <v>222</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="I141" s="2">
-        <v>50</v>
+        <v>377</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('QMWD1110', '4','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '11:10:00', '12:10:00', '50', '');</v>
+        <v>insert into Shift values('QMWD1110', '4','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '11:10:00', '12:10:00', '5', '');</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>172</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>187</v>
@@ -7066,22 +7098,22 @@
         <v>224</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="I142" s="2">
-        <v>50</v>
+        <v>386</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('QMWD1610', '1','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '16:10:00', '17:10:00', '50', '');</v>
+        <v>insert into Shift values('QMWD1610', '1','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '16:10:00', '17:10:00', '5', '');</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>187</v>
@@ -7096,22 +7128,22 @@
         <v>225</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="I143" s="2">
-        <v>50</v>
+        <v>387</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('QMWD1950', '2','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '19:50:00', '20:50:00', '50', '');</v>
+        <v>insert into Shift values('QMWD1950', '2','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '19:50:00', '20:50:00', '5', '');</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>187</v>
@@ -7126,22 +7158,22 @@
         <v>226</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="I144" s="2">
-        <v>50</v>
+        <v>388</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('QMHD0800', '3','QiBaoToMinHang', '七宝到闵行', 'HolidayWorkday', '8:00:00', '9:00:00', '50', '');</v>
+        <v>insert into Shift values('QMHD0800', '3','QiBaoToMinHang', '七宝到闵行', 'HolidayWorkday', '8:00:00', '9:00:00', '5', '');</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>187</v>
@@ -7150,28 +7182,28 @@
         <v>188</v>
       </c>
       <c r="F145" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>206</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="I145" s="2">
-        <v>50</v>
+        <v>339</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('QMHD1610', '4','QiBaoToMinHang', '七宝到闵行', 'HolidayWorkday', '16:10:00', '17:10:00', '50', '');</v>
+        <v>insert into Shift values('QMHD1610', '4','QiBaoToMinHang', '七宝到闵行', 'HolidayWorkday', '16:10:00', '17:10:00', '5', '');</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>187</v>
@@ -7180,28 +7212,28 @@
         <v>188</v>
       </c>
       <c r="F146" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>225</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="I146" s="2">
-        <v>50</v>
+        <v>387</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('MQWD0800', '1','MinHangToQiBao', '闵行到七宝', 'NormalWorkday', '8:00:00', '9:00:00', '50', '');</v>
+        <v>insert into Shift values('MQWD0800', '1','MinHangToQiBao', '闵行到七宝', 'NormalWorkday', '8:00:00', '9:00:00', '5', '');</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>190</v>
@@ -7216,22 +7248,22 @@
         <v>206</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="I147" s="2">
-        <v>50</v>
+        <v>339</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('MQWD1220', '2','MinHangToQiBao', '闵行到七宝', 'NormalWorkday', '12:20:00', '13:20:00', '50', '');</v>
+        <v>insert into Shift values('MQWD1220', '2','MinHangToQiBao', '闵行到七宝', 'NormalWorkday', '12:20:00', '13:20:00', '5', '');</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>190</v>
@@ -7246,22 +7278,22 @@
         <v>227</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="I148" s="2">
-        <v>50</v>
+        <v>389</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('MQWD1700', '3','MinHangToQiBao', '闵行到七宝', 'NormalWorkday', '17:00:00', '18:00:00', '50', '');</v>
+        <v>insert into Shift values('MQWD1700', '3','MinHangToQiBao', '闵行到七宝', 'NormalWorkday', '17:00:00', '18:00:00', '5', '');</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>177</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>190</v>
@@ -7276,22 +7308,22 @@
         <v>228</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I149" s="2">
-        <v>50</v>
+        <v>370</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('MQWD2030', '4','MinHangToQiBao', '闵行到七宝', 'NormalWorkday', '20:30:00', '21:30:00', '50', '');</v>
+        <v>insert into Shift values('MQWD2030', '4','MinHangToQiBao', '闵行到七宝', 'NormalWorkday', '20:30:00', '21:30:00', '5', '');</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>178</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>190</v>
@@ -7306,22 +7338,22 @@
         <v>229</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="I150" s="2">
-        <v>50</v>
+        <v>390</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('MQHD0850', '1','MinHangToQiBao', '闵行到七宝', 'HolidayWorkday', '8:50:00', '9:50:00', '50', '');</v>
+        <v>insert into Shift values('MQHD0850', '1','MinHangToQiBao', '闵行到七宝', 'HolidayWorkday', '8:50:00', '9:50:00', '5', '');</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>190</v>
@@ -7330,28 +7362,28 @@
         <v>189</v>
       </c>
       <c r="F151" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>211</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="I151" s="2">
-        <v>50</v>
+        <v>349</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('MQHD1700', '2','MinHangToQiBao', '闵行到七宝', 'HolidayWorkday', '17:00:00', '18:00:00', '50', '');</v>
+        <v>insert into Shift values('MQHD1700', '2','MinHangToQiBao', '闵行到七宝', 'HolidayWorkday', '17:00:00', '18:00:00', '5', '');</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>190</v>
@@ -7360,16 +7392,16 @@
         <v>189</v>
       </c>
       <c r="F152" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>228</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I152" s="2">
-        <v>50</v>
+        <v>370</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -7384,10 +7416,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEB99EF-93F5-4127-BC61-2E8E73D755DF}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7398,7 +7430,7 @@
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.21875" style="5" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -7423,12 +7455,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -7438,7 +7470,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("insert into Appointment values('",B3,"', '",C3,"', '",D3,"', '",E3,"', '",F3,"', '",G3,"', '",H3,"');")</f>
-        <v>insert into Appointment values('1', '1', 'LLAW0825', '姚子航', '2018-07-09', '校园巴士逆时针', '1');</v>
+        <v>insert into Appointment values('1', '1', 'LLAW0825', '姚子航', '2018-06-30', 'LoopLineAntiClockwise', '1');</v>
       </c>
       <c r="B3" s="15">
         <v>1</v>
@@ -7450,13 +7482,13 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G3" t="s">
-        <v>181</v>
+        <v>392</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -7465,7 +7497,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE("insert into Appointment values('",B4,"', '",C4,"', '",D4,"', '",E4,"', '",F4,"', '",G4,"', '",H4,"');")</f>
-        <v>insert into Appointment values('2', '2', 'LLAW0840', '王鑫伟', '2018-07-10', '校园巴士逆时针', '1');</v>
+        <v>insert into Appointment values('2', '2', 'LLAW0840', '王鑫伟', '2018-07-01', 'LoopLineAntiClockwise', '1');</v>
       </c>
       <c r="B4" s="15">
         <v>2</v>
@@ -7477,13 +7509,13 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G4" t="s">
-        <v>181</v>
+        <v>393</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -7491,8 +7523,8 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f t="shared" ref="A5:A9" si="0">CONCATENATE("insert into Appointment values('",B5,"', '",C5,"', '",D5,"', '",E5,"', '",F5,"', '",G5,"', '",H5,"');")</f>
-        <v>insert into Appointment values('3', '3', 'MQWD0800', '励颖', '2018-07-11', '校园巴士逆时针', '1');</v>
+        <f t="shared" ref="A5:A18" si="0">CONCATENATE("insert into Appointment values('",B5,"', '",C5,"', '",D5,"', '",E5,"', '",F5,"', '",G5,"', '",H5,"');")</f>
+        <v>insert into Appointment values('3', '3', 'MQWD0800', '励颖', '2018-07-02', 'MinHangToQiBao', '1');</v>
       </c>
       <c r="B5" s="15">
         <v>3</v>
@@ -7504,13 +7536,13 @@
         <v>175</v>
       </c>
       <c r="E5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G5" t="s">
-        <v>181</v>
+        <v>400</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -7519,7 +7551,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('4', '4', 'MQWD1220', '王一林', '2018-07-12', '校园巴士逆时针', '1');</v>
+        <v>insert into Appointment values('4', '4', 'MQWD1220', '王一林', '2018-07-03', 'MinHangToQiBao', '1');</v>
       </c>
       <c r="B6" s="15">
         <v>4</v>
@@ -7531,13 +7563,13 @@
         <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G6" t="s">
-        <v>181</v>
+        <v>394</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -7546,7 +7578,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('5', '5', 'MQWD1700', '沈备军', '2018-07-13', '校园巴士逆时针', '1');</v>
+        <v>insert into Appointment values('5', '5', 'MQWD1700', '沈备军', '2018-07-04', 'MinHangToQiBao', '1');</v>
       </c>
       <c r="B7" s="15">
         <v>5</v>
@@ -7558,13 +7590,13 @@
         <v>177</v>
       </c>
       <c r="E7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G7" t="s">
-        <v>181</v>
+        <v>395</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -7573,7 +7605,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('6', '6', 'MQWD2030', '任锐', '2018-07-14', '校园巴士逆时针', '1');</v>
+        <v>insert into Appointment values('6', '6', 'MQWD2030', '任锐', '2018-07-05', 'MinHangToQiBao', '1');</v>
       </c>
       <c r="B8" s="15">
         <v>6</v>
@@ -7585,13 +7617,13 @@
         <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" t="s">
-        <v>181</v>
+        <v>396</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -7600,7 +7632,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('7', '7', 'MQHD0850', '陈昊鹏', '2018-07-15', '校园巴士逆时针', '0');</v>
+        <v>insert into Appointment values('7', '7', 'MQHD0850', '陈昊鹏', '2018-07-06', 'MinHangToQiBao', '0');</v>
       </c>
       <c r="B9" s="15">
         <v>7</v>
@@ -7609,19 +7641,262 @@
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G9" t="s">
-        <v>181</v>
+        <v>397</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="H9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Appointment values('8', '1', 'MXHD0730', '姚子航', '2018-07-07', 'MinHangToXuHui', '1');</v>
+      </c>
+      <c r="B10" s="15">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Appointment values('9', '2', 'MXHD1215', '王鑫伟', '2018-07-08', 'MinHangToXuHui', '1');</v>
+      </c>
+      <c r="B11" s="15">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Appointment values('10', '3', 'MXHD1630A', '励颖', '2018-07-09', 'MinHangToXuHui', '1');</v>
+      </c>
+      <c r="B12" s="15">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Appointment values('11', '4', 'MXHD1630B', '王一林', '2018-07-10', 'MinHangToXuHui', '1');</v>
+      </c>
+      <c r="B13" s="15">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" t="s">
+        <v>327</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Appointment values('12', '5', 'MXHD1630C', '沈备军', '2018-07-11', 'MinHangToXuHui', '0');</v>
+      </c>
+      <c r="B14" s="15">
+        <v>12</v>
+      </c>
+      <c r="C14" s="15">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" t="s">
+        <v>328</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Appointment values('13', '6', 'MXHD1730', '任锐', '2018-07-12', 'MinHangToXuHui', '0');</v>
+      </c>
+      <c r="B15" s="15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" t="s">
+        <v>329</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Appointment values('14', '7', 'MXHD2000', '陈昊鹏', '2018-07-13', 'MinHangToXuHui', '0');</v>
+      </c>
+      <c r="B16" s="15">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Appointment values('15', '1', 'MXHE0730', '姚子航', '2018-07-14', 'MinHangToXuHui', '1');</v>
+      </c>
+      <c r="B17" s="15">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Appointment values('16', '2', 'MXHE1630', '王鑫伟', '2018-07-15', 'MinHangToXuHui', '1');</v>
+      </c>
+      <c r="B18" s="15">
+        <v>16</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" t="s">
+        <v>325</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/database design/mysql/insert 数据表.xlsx
+++ b/database design/mysql/insert 数据表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2FD6D8F4-E429-4666-B3C2-AA1655452368}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{18863831-77A6-4DF1-9DA0-2C4E62AE94E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Administrator" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="420">
   <si>
     <t>appointment_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -967,19 +967,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沪AB2333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沪AB2334</t>
-  </si>
-  <si>
-    <t>沪AB2335</t>
-  </si>
-  <si>
-    <t>沪AB2336</t>
-  </si>
-  <si>
     <t>Appointment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1299,10 +1286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>real_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1620,6 +1603,75 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:01</t>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:02</t>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:03</t>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:04</t>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:05</t>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:06</t>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:07</t>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:08</t>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:09</t>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:10</t>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:11</t>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:12</t>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:13</t>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:14</t>
+  </si>
+  <si>
+    <t>2018-06-29 12:00:15</t>
+  </si>
+  <si>
+    <t>沪D52210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪D52182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪D41683</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2145,7 +2197,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2169,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2193,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2217,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2241,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2265,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2289,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2313,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2369,10 +2421,10 @@
         <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2396,10 +2448,10 @@
         <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2423,10 +2475,10 @@
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2450,10 +2502,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2477,10 +2529,10 @@
         <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2504,10 +2556,10 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2531,10 +2583,10 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2558,10 +2610,10 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2579,7 +2631,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2659,10 +2711,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12889D29-341C-431E-94E5-987779FAE256}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2699,7 +2751,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("insert into Bus values('",B3,"', '",C3,"', '",D3,"', '",E3,"');")</f>
-        <v>insert into Bus values('1', '1', '50', '沪AB2333');</v>
+        <v>insert into Bus values('1', '1', '50', '沪D52210');</v>
       </c>
       <c r="B3" s="15">
         <v>1</v>
@@ -2711,13 +2763,13 @@
         <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A6" si="0">CONCATENATE("insert into Bus values('",B4,"', '",C4,"', '",D4,"', '",E4,"');")</f>
-        <v>insert into Bus values('2', '2', '50', '沪AB2334');</v>
+        <f t="shared" ref="A4:A5" si="0">CONCATENATE("insert into Bus values('",B4,"', '",C4,"', '",D4,"', '",E4,"');")</f>
+        <v>insert into Bus values('2', '2', '50', '沪D52182');</v>
       </c>
       <c r="B4" s="15">
         <v>2</v>
@@ -2729,13 +2781,13 @@
         <v>234</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Bus values('3', '1', '50', '沪AB2335');</v>
+        <v>insert into Bus values('3', '1', '50', '沪D41683');</v>
       </c>
       <c r="B5" s="15">
         <v>3</v>
@@ -2747,25 +2799,7 @@
         <v>234</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Bus values('4', '2', '50', '沪AB2336');</v>
-      </c>
-      <c r="B6" s="15">
-        <v>4</v>
-      </c>
-      <c r="C6" s="15">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" t="s">
-        <v>238</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -2782,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1F9F45-FCED-43F1-84F8-296F483D4CF4}">
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I152"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2817,7 +2851,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>26</v>
@@ -2832,7 +2866,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>30</v>
@@ -2850,7 +2884,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>179</v>
@@ -2859,16 +2893,16 @@
         <v>181</v>
       </c>
       <c r="F3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>204</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2880,7 +2914,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>179</v>
@@ -2889,16 +2923,16 @@
         <v>181</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>205</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2910,7 +2944,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>179</v>
@@ -2919,28 +2953,28 @@
         <v>181</v>
       </c>
       <c r="F5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>206</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW0815', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '8:15:00', '8:35:00', '5', '');</v>
+        <v>insert into Shift values('LLAW0815', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '8:15:00', '8:35:00', '5', '');</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>179</v>
@@ -2949,28 +2983,28 @@
         <v>181</v>
       </c>
       <c r="F6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>207</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW0825', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '8:25:00', '8:45:00', '5', '');</v>
+        <v>insert into Shift values('LLAW0825', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '8:25:00', '8:45:00', '5', '');</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>179</v>
@@ -2979,28 +3013,28 @@
         <v>181</v>
       </c>
       <c r="F7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>208</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW0840', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '8:40:00', '9:00:00', '5', '');</v>
+        <v>insert into Shift values('LLAW0840', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '8:40:00', '9:00:00', '5', '');</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>179</v>
@@ -3009,28 +3043,28 @@
         <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>209</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW0900', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '9:00:00', '9:20:00', '5', '');</v>
+        <v>insert into Shift values('LLAW0900', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '9:00:00', '9:20:00', '5', '');</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>179</v>
@@ -3039,28 +3073,28 @@
         <v>181</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW0920', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '9:20:00', '9:40:00', '5', '');</v>
+        <v>insert into Shift values('LLAW0920', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '9:20:00', '9:40:00', '5', '');</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>179</v>
@@ -3069,28 +3103,28 @@
         <v>181</v>
       </c>
       <c r="F10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW0940', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '9:40:00', '10:00:00', '5', '');</v>
+        <v>insert into Shift values('LLAW0940', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '9:40:00', '10:00:00', '5', '');</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>179</v>
@@ -3099,28 +3133,28 @@
         <v>181</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>216</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1000', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '10:00:00', '10:20:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1000', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '10:00:00', '10:20:00', '5', '');</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>179</v>
@@ -3129,28 +3163,28 @@
         <v>181</v>
       </c>
       <c r="F12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1020', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '10:20:00', '10:40:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1020', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '10:20:00', '10:40:00', '5', '');</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>179</v>
@@ -3159,28 +3193,28 @@
         <v>181</v>
       </c>
       <c r="F13" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1040', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '10:40:00', '11:00:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1040', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '10:40:00', '11:00:00', '5', '');</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>179</v>
@@ -3189,16 +3223,16 @@
         <v>181</v>
       </c>
       <c r="F14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>217</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3210,7 +3244,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>179</v>
@@ -3219,16 +3253,16 @@
         <v>181</v>
       </c>
       <c r="F15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3240,7 +3274,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>179</v>
@@ -3249,16 +3283,16 @@
         <v>181</v>
       </c>
       <c r="F16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3270,7 +3304,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>179</v>
@@ -3279,28 +3313,28 @@
         <v>181</v>
       </c>
       <c r="F17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1200', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '12:00:00', '13:00:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1200', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '12:00:00', '13:00:00', '5', '');</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>179</v>
@@ -3309,28 +3343,28 @@
         <v>181</v>
       </c>
       <c r="F18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1300', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '13:00:00', '13:20:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1300', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '13:00:00', '13:20:00', '5', '');</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>179</v>
@@ -3339,28 +3373,28 @@
         <v>181</v>
       </c>
       <c r="F19" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1320', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '13:20:00', '13:40:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1320', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '13:20:00', '13:40:00', '5', '');</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>179</v>
@@ -3369,28 +3403,28 @@
         <v>181</v>
       </c>
       <c r="F20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1340', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '13:40:00', '14:00:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1340', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '13:40:00', '14:00:00', '5', '');</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>179</v>
@@ -3399,28 +3433,28 @@
         <v>181</v>
       </c>
       <c r="F21" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1400', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '14:00:00', '14:20:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1400', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '14:00:00', '14:20:00', '5', '');</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>179</v>
@@ -3429,28 +3463,28 @@
         <v>181</v>
       </c>
       <c r="F22" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1420', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '14:20:00', '14:40:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1420', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '14:20:00', '14:40:00', '5', '');</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>179</v>
@@ -3459,28 +3493,28 @@
         <v>181</v>
       </c>
       <c r="F23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1440', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '14:40:00', '15:00:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1440', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '14:40:00', '15:00:00', '5', '');</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>179</v>
@@ -3489,28 +3523,28 @@
         <v>181</v>
       </c>
       <c r="F24" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1500', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '15:00:00', '15:20:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1500', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '15:00:00', '15:20:00', '5', '');</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>179</v>
@@ -3519,28 +3553,28 @@
         <v>181</v>
       </c>
       <c r="F25" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1520', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '15:20:00', '15:40:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1520', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '15:20:00', '15:40:00', '5', '');</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>179</v>
@@ -3549,16 +3583,16 @@
         <v>181</v>
       </c>
       <c r="F26" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3570,7 +3604,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>179</v>
@@ -3579,16 +3613,16 @@
         <v>181</v>
       </c>
       <c r="F27" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3600,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>179</v>
@@ -3609,16 +3643,16 @@
         <v>181</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3630,7 +3664,7 @@
         <v>59</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>179</v>
@@ -3639,28 +3673,28 @@
         <v>181</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1630', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '16:30:00', '16:50:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1630', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '16:30:00', '16:50:00', '5', '');</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>179</v>
@@ -3669,28 +3703,28 @@
         <v>181</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1700', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:00:00', '17:20:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1700', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:00:00', '17:20:00', '5', '');</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>179</v>
@@ -3699,28 +3733,28 @@
         <v>181</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1715', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:15:00', '17:35:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1715', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:15:00', '17:35:00', '5', '');</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>179</v>
@@ -3729,28 +3763,28 @@
         <v>181</v>
       </c>
       <c r="F32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1730', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:30:00', '17:50:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1730', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:30:00', '17:50:00', '5', '');</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>179</v>
@@ -3759,28 +3793,28 @@
         <v>181</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1750', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:50:00', '18:10:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1750', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '17:50:00', '18:10:00', '5', '');</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>179</v>
@@ -3789,28 +3823,28 @@
         <v>181</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1800', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '18:00:00', '18:20:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1800', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '18:00:00', '18:20:00', '5', '');</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>179</v>
@@ -3819,28 +3853,28 @@
         <v>181</v>
       </c>
       <c r="F35" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW1900', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '19:00:00', '19:20:00', '5', '');</v>
+        <v>insert into Shift values('LLAW1900', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '19:00:00', '19:20:00', '5', '');</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>179</v>
@@ -3849,28 +3883,28 @@
         <v>181</v>
       </c>
       <c r="F36" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAW2010', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '20:10:00', '20:30:00', '5', '');</v>
+        <v>insert into Shift values('LLAW2010', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'NormalWorkday', '20:10:00', '20:30:00', '5', '');</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>179</v>
@@ -3879,28 +3913,28 @@
         <v>181</v>
       </c>
       <c r="F37" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW0830', '4','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '8:30:00', '8:50:00', '5', '');</v>
+        <v>insert into Shift values('LLCW0830', '3','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '8:30:00', '8:50:00', '5', '');</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>180</v>
@@ -3909,7 +3943,7 @@
         <v>182</v>
       </c>
       <c r="F38" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>210</v>
@@ -3918,7 +3952,7 @@
         <v>211</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3930,7 +3964,7 @@
         <v>69</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>180</v>
@@ -3939,7 +3973,7 @@
         <v>182</v>
       </c>
       <c r="F39" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>211</v>
@@ -3948,7 +3982,7 @@
         <v>212</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3960,7 +3994,7 @@
         <v>70</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>180</v>
@@ -3969,7 +4003,7 @@
         <v>182</v>
       </c>
       <c r="F40" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>212</v>
@@ -3978,7 +4012,7 @@
         <v>213</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3990,7 +4024,7 @@
         <v>71</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>180</v>
@@ -3999,28 +4033,28 @@
         <v>182</v>
       </c>
       <c r="F41" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1000', '4','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '10:00:00', '10:20:00', '5', '');</v>
+        <v>insert into Shift values('LLCW1000', '1','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '10:00:00', '10:20:00', '5', '');</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>180</v>
@@ -4029,28 +4063,28 @@
         <v>182</v>
       </c>
       <c r="F42" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="H42" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1030', '1','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '10:30:00', '10:50:00', '5', '');</v>
+        <v>insert into Shift values('LLCW1030', '2','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '10:30:00', '10:50:00', '5', '');</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>180</v>
@@ -4059,28 +4093,28 @@
         <v>182</v>
       </c>
       <c r="F43" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1100', '2','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '11:00:00', '11:20:00', '5', '');</v>
+        <v>insert into Shift values('LLCW1100', '3','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '11:00:00', '11:20:00', '5', '');</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>180</v>
@@ -4089,28 +4123,28 @@
         <v>182</v>
       </c>
       <c r="F44" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1130', '3','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '11:30:00', '11:50:00', '5', '');</v>
+        <v>insert into Shift values('LLCW1130', '1','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '11:30:00', '11:50:00', '5', '');</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>180</v>
@@ -4119,28 +4153,28 @@
         <v>182</v>
       </c>
       <c r="F45" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1230', '4','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '12:30:00', '12:50:00', '5', '');</v>
+        <v>insert into Shift values('LLCW1230', '2','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '12:30:00', '12:50:00', '5', '');</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>180</v>
@@ -4149,28 +4183,28 @@
         <v>182</v>
       </c>
       <c r="F46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1330', '1','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '13:30:00', '13:50:00', '5', '');</v>
+        <v>insert into Shift values('LLCW1330', '3','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '13:30:00', '13:50:00', '5', '');</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>180</v>
@@ -4179,28 +4213,28 @@
         <v>182</v>
       </c>
       <c r="F47" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1400', '2','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '14:00:00', '14:20:00', '5', '');</v>
+        <v>insert into Shift values('LLCW1400', '1','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '14:00:00', '14:20:00', '5', '');</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>180</v>
@@ -4209,28 +4243,28 @@
         <v>182</v>
       </c>
       <c r="F48" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1430', '3','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '14:30:00', '14:50:00', '5', '');</v>
+        <v>insert into Shift values('LLCW1430', '2','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '14:30:00', '14:50:00', '5', '');</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>180</v>
@@ -4239,28 +4273,28 @@
         <v>182</v>
       </c>
       <c r="F49" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCW1500', '4','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '15:00:00', '15:20:00', '5', '');</v>
+        <v>insert into Shift values('LLCW1500', '3','LoopLineClockwise', '校园巴士顺时针', 'NormalWorkday', '15:00:00', '15:20:00', '5', '');</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>180</v>
@@ -4269,16 +4303,16 @@
         <v>182</v>
       </c>
       <c r="F50" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -4290,7 +4324,7 @@
         <v>81</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>180</v>
@@ -4299,16 +4333,16 @@
         <v>182</v>
       </c>
       <c r="F51" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -4320,7 +4354,7 @@
         <v>82</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>180</v>
@@ -4329,16 +4363,16 @@
         <v>182</v>
       </c>
       <c r="F52" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4350,7 +4384,7 @@
         <v>83</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>180</v>
@@ -4359,28 +4393,28 @@
         <v>182</v>
       </c>
       <c r="F53" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAH0815', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '8:15:00', '8:35:00', '5', '');</v>
+        <v>insert into Shift values('LLAH0815', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '8:15:00', '8:35:00', '5', '');</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>179</v>
@@ -4389,28 +4423,28 @@
         <v>181</v>
       </c>
       <c r="F54" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>207</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAH0930', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '9:30:00', '9:50:00', '5', '');</v>
+        <v>insert into Shift values('LLAH0930', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '9:30:00', '9:50:00', '5', '');</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>179</v>
@@ -4419,28 +4453,28 @@
         <v>181</v>
       </c>
       <c r="F55" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>213</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAH1030', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '10:30:00', '10:50:00', '5', '');</v>
+        <v>insert into Shift values('LLAH1030', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '10:30:00', '10:50:00', '5', '');</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>179</v>
@@ -4449,28 +4483,28 @@
         <v>181</v>
       </c>
       <c r="F56" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>214</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAH1130', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '11:30:00', '11:50:00', '5', '');</v>
+        <v>insert into Shift values('LLAH1130', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '11:30:00', '11:50:00', '5', '');</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>179</v>
@@ -4479,28 +4513,28 @@
         <v>181</v>
       </c>
       <c r="F57" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAH1500', '4','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '15:00:00', '15:20:00', '5', '');</v>
+        <v>insert into Shift values('LLAH1500', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '15:00:00', '15:20:00', '5', '');</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>179</v>
@@ -4509,28 +4543,28 @@
         <v>181</v>
       </c>
       <c r="F58" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAH1630', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '16:30:00', '16:50:00', '5', '');</v>
+        <v>insert into Shift values('LLAH1630', '3','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '16:30:00', '16:50:00', '5', '');</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>179</v>
@@ -4539,28 +4573,28 @@
         <v>181</v>
       </c>
       <c r="F59" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLAH1800', '2','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '18:00:00', '18:20:00', '5', '');</v>
+        <v>insert into Shift values('LLAH1800', '1','LoopLineAntiClockwise', '校园巴士逆时针', 'HolidayWorkday', '18:00:00', '18:20:00', '5', '');</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>179</v>
@@ -4569,28 +4603,28 @@
         <v>181</v>
       </c>
       <c r="F60" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCH0845', '3','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '8:45:00', '9:05:00', '5', '');</v>
+        <v>insert into Shift values('LLCH0845', '2','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '8:45:00', '9:05:00', '5', '');</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>180</v>
@@ -4599,28 +4633,28 @@
         <v>182</v>
       </c>
       <c r="F61" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>215</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCH1000', '4','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '10:00:00', '10:20:00', '5', '');</v>
+        <v>insert into Shift values('LLCH1000', '3','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '10:00:00', '10:20:00', '5', '');</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>180</v>
@@ -4629,16 +4663,16 @@
         <v>182</v>
       </c>
       <c r="F62" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>216</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4650,7 +4684,7 @@
         <v>93</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>180</v>
@@ -4659,16 +4693,16 @@
         <v>182</v>
       </c>
       <c r="F63" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>217</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -4680,7 +4714,7 @@
         <v>94</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>180</v>
@@ -4689,16 +4723,16 @@
         <v>182</v>
       </c>
       <c r="F64" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4710,7 +4744,7 @@
         <v>95</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>180</v>
@@ -4719,28 +4753,28 @@
         <v>182</v>
       </c>
       <c r="F65" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCH1600', '4','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '16:00:00', '16:20:00', '5', '');</v>
+        <v>insert into Shift values('LLCH1600', '1','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '16:00:00', '16:20:00', '5', '');</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>180</v>
@@ -4749,28 +4783,28 @@
         <v>182</v>
       </c>
       <c r="F66" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Shift values('LLCH1715', '1','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '17:15:00', '17:35:00', '5', '');</v>
+        <v>insert into Shift values('LLCH1715', '2','LoopLineClockwise', '校园巴士顺时针', 'HolidayWorkday', '17:15:00', '17:35:00', '5', '');</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>180</v>
@@ -4779,28 +4813,28 @@
         <v>182</v>
       </c>
       <c r="F67" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" ref="A68:A131" si="1">CONCATENATE("insert into Shift values('",B68,"', '",C68,"','",D68,"', '",E68,"', '",F68,"', '",G68,"', '",H68,"', '",I68,"', '",J68,"');")</f>
-        <v>insert into Shift values('MXWD0640A', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '6:40:00', '7:40:00', '5', '');</v>
+        <v>insert into Shift values('MXWD0640A', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '6:40:00', '7:40:00', '5', '');</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>183</v>
@@ -4809,28 +4843,28 @@
         <v>184</v>
       </c>
       <c r="F68" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>218</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD0640B', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '6:40:00', '7:40:00', '5', '');</v>
+        <v>insert into Shift values('MXWD0640B', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '6:40:00', '7:40:00', '5', '');</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>183</v>
@@ -4839,28 +4873,28 @@
         <v>184</v>
       </c>
       <c r="F69" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>218</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD0715A', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '7:15:00', '8:15:00', '5', '');</v>
+        <v>insert into Shift values('MXWD0715A', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '7:15:00', '8:15:00', '5', '');</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>183</v>
@@ -4869,28 +4903,28 @@
         <v>184</v>
       </c>
       <c r="F70" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD0715B', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '7:15:00', '8:15:00', '5', '');</v>
+        <v>insert into Shift values('MXWD0715B', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '7:15:00', '8:15:00', '5', '');</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>183</v>
@@ -4899,28 +4933,28 @@
         <v>184</v>
       </c>
       <c r="F71" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD0830', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '8:30:00', '9:30:00', '5', '');</v>
+        <v>insert into Shift values('MXWD0830', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '8:30:00', '9:30:00', '5', '');</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>183</v>
@@ -4929,28 +4963,28 @@
         <v>184</v>
       </c>
       <c r="F72" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1010A', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '10:10:00', '11:10:00', '5', '');</v>
+        <v>insert into Shift values('MXWD1010A', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '10:10:00', '11:10:00', '5', '');</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>183</v>
@@ -4959,28 +4993,28 @@
         <v>184</v>
       </c>
       <c r="F73" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1010B', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '10:10:00', '11:10:00', '5', '');</v>
+        <v>insert into Shift values('MXWD1010B', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '10:10:00', '11:10:00', '5', '');</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>183</v>
@@ -4989,16 +5023,16 @@
         <v>184</v>
       </c>
       <c r="F74" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -5010,7 +5044,7 @@
         <v>105</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>183</v>
@@ -5019,16 +5053,16 @@
         <v>184</v>
       </c>
       <c r="F75" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -5040,7 +5074,7 @@
         <v>106</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>183</v>
@@ -5049,16 +5083,16 @@
         <v>184</v>
       </c>
       <c r="F76" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -5070,7 +5104,7 @@
         <v>107</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>183</v>
@@ -5079,28 +5113,28 @@
         <v>184</v>
       </c>
       <c r="F77" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1410A', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '14:10:00', '15:10:00', '5', '');</v>
+        <v>insert into Shift values('MXWD1410A', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '14:10:00', '15:10:00', '5', '');</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>183</v>
@@ -5109,28 +5143,28 @@
         <v>184</v>
       </c>
       <c r="F78" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1410B', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '14:10:00', '15:10:00', '5', '');</v>
+        <v>insert into Shift values('MXWD1410B', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '14:10:00', '15:10:00', '5', '');</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>183</v>
@@ -5139,28 +5173,28 @@
         <v>184</v>
       </c>
       <c r="F79" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1600A', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '16:00:00', '17:00:00', '5', '');</v>
+        <v>insert into Shift values('MXWD1600A', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '16:00:00', '17:00:00', '5', '');</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>183</v>
@@ -5169,28 +5203,28 @@
         <v>184</v>
       </c>
       <c r="F80" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1600B', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '16:00:00', '17:00:00', '5', '');</v>
+        <v>insert into Shift values('MXWD1600B', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '16:00:00', '17:00:00', '5', '');</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>183</v>
@@ -5199,28 +5233,28 @@
         <v>184</v>
       </c>
       <c r="F81" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1600C', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '16:00:00', '17:00:00', '5', '');</v>
+        <v>insert into Shift values('MXWD1600C', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '16:00:00', '17:00:00', '5', '');</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>183</v>
@@ -5229,28 +5263,28 @@
         <v>184</v>
       </c>
       <c r="F82" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1700A', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '17:00:00', '18:00:00', '5', '直达徐汇校区,途径罗阳、上中、天钥、交大新村 ');</v>
+        <v>insert into Shift values('MXWD1700A', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '17:00:00', '18:00:00', '5', '直达徐汇校区,途径罗阳、上中、天钥、交大新村 ');</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>183</v>
@@ -5259,16 +5293,16 @@
         <v>184</v>
       </c>
       <c r="F83" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>200</v>
@@ -5277,13 +5311,13 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1700B', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '17:00:00', '18:00:00', '5', '直达田林');</v>
+        <v>insert into Shift values('MXWD1700B', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '17:00:00', '18:00:00', '5', '直达田林');</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>183</v>
@@ -5292,16 +5326,16 @@
         <v>184</v>
       </c>
       <c r="F84" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J84" s="8" t="s">
         <v>192</v>
@@ -5310,13 +5344,13 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1700C', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '17:00:00', '18:00:00', '5', '直达古美');</v>
+        <v>insert into Shift values('MXWD1700C', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '17:00:00', '18:00:00', '5', '直达古美');</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>183</v>
@@ -5325,16 +5359,16 @@
         <v>184</v>
       </c>
       <c r="F85" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J85" s="8" t="s">
         <v>193</v>
@@ -5343,13 +5377,13 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWD1830A', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '18:30:00', '19:30:00', '5', '');</v>
+        <v>insert into Shift values('MXWD1830A', '3','MinHangToXuHui', '闵行到徐汇', 'NormalWorkday', '18:30:00', '19:30:00', '5', '');</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>183</v>
@@ -5358,16 +5392,16 @@
         <v>184</v>
       </c>
       <c r="F86" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -5379,7 +5413,7 @@
         <v>117</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>183</v>
@@ -5388,16 +5422,16 @@
         <v>184</v>
       </c>
       <c r="F87" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -5409,7 +5443,7 @@
         <v>118</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>183</v>
@@ -5418,16 +5452,16 @@
         <v>184</v>
       </c>
       <c r="F88" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -5439,7 +5473,7 @@
         <v>119</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>183</v>
@@ -5448,28 +5482,28 @@
         <v>184</v>
       </c>
       <c r="F89" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWE0730', '4','MinHangToXuHui', '闵行到徐汇', 'NormalWeekendAndLegalHoliday', '7:30:00', '8:30:00', '5', '');</v>
+        <v>insert into Shift values('MXWE0730', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWeekendAndLegalHoliday', '7:30:00', '8:30:00', '5', '');</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>183</v>
@@ -5478,28 +5512,28 @@
         <v>184</v>
       </c>
       <c r="F90" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>204</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXWE1630', '1','MinHangToXuHui', '闵行到徐汇', 'NormalWeekendAndLegalHoliday', '12:15:00', '13:15:00', '5', '');</v>
+        <v>insert into Shift values('MXWE1630', '2','MinHangToXuHui', '闵行到徐汇', 'NormalWeekendAndLegalHoliday', '12:15:00', '13:15:00', '5', '');</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>183</v>
@@ -5508,28 +5542,28 @@
         <v>184</v>
       </c>
       <c r="F91" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>219</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHD0730', '2','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '7:30:00', '8:30:00', '5', '');</v>
+        <v>insert into Shift values('MXHD0730', '3','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '7:30:00', '8:30:00', '5', '');</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>183</v>
@@ -5538,28 +5572,28 @@
         <v>184</v>
       </c>
       <c r="F92" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>204</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHD1215', '3','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '12:15:00', '13:15:00', '5', '');</v>
+        <v>insert into Shift values('MXHD1215', '1','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '12:15:00', '13:15:00', '5', '');</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>183</v>
@@ -5568,28 +5602,28 @@
         <v>184</v>
       </c>
       <c r="F93" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>219</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHD1630A', '4','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '16:30:00', '17:30:00', '5', '直达徐汇校区,途径罗阳、上中、天钥、交大新村');</v>
+        <v>insert into Shift values('MXHD1630A', '2','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '16:30:00', '17:30:00', '5', '直达徐汇校区,途径罗阳、上中、天钥、交大新村');</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>183</v>
@@ -5598,16 +5632,16 @@
         <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J94" s="8" t="s">
         <v>191</v>
@@ -5616,13 +5650,13 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHD1630B', '1','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '16:30:00', '17:30:00', '5', '直达田林');</v>
+        <v>insert into Shift values('MXHD1630B', '3','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '16:30:00', '17:30:00', '5', '直达田林');</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>183</v>
@@ -5631,16 +5665,16 @@
         <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J95" s="8" t="s">
         <v>192</v>
@@ -5649,13 +5683,13 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHD1630C', '2','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '16:30:00', '17:30:00', '5', '直达古美');</v>
+        <v>insert into Shift values('MXHD1630C', '1','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '16:30:00', '17:30:00', '5', '直达古美');</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>183</v>
@@ -5664,16 +5698,16 @@
         <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J96" s="8" t="s">
         <v>193</v>
@@ -5682,13 +5716,13 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHD1730', '3','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '17:30:00', '18:30:00', '5', '');</v>
+        <v>insert into Shift values('MXHD1730', '2','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '17:30:00', '18:30:00', '5', '');</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>183</v>
@@ -5697,28 +5731,28 @@
         <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('MXHD2000', '4','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '20:00:00', '21:00:00', '5', '');</v>
+        <v>insert into Shift values('MXHD2000', '3','MinHangToXuHui', '闵行到徐汇', 'HolidayWorkday', '20:00:00', '21:00:00', '5', '');</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>183</v>
@@ -5727,16 +5761,16 @@
         <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -5748,7 +5782,7 @@
         <v>129</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>183</v>
@@ -5757,16 +5791,16 @@
         <v>184</v>
       </c>
       <c r="F99" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>204</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -5778,7 +5812,7 @@
         <v>130</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>183</v>
@@ -5787,16 +5821,16 @@
         <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>220</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -5808,7 +5842,7 @@
         <v>131</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>185</v>
@@ -5817,16 +5851,16 @@
         <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>221</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J101" s="8" t="s">
         <v>199</v>
@@ -5835,13 +5869,13 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0645B', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '6:45:00', '7:45:00', '5', '田林始发，途径古美至闵行');</v>
+        <v>insert into Shift values('XMWD0645B', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '6:45:00', '7:45:00', '5', '田林始发，途径古美至闵行');</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>132</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>185</v>
@@ -5850,16 +5884,16 @@
         <v>186</v>
       </c>
       <c r="F102" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>221</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J102" s="8" t="s">
         <v>194</v>
@@ -5868,13 +5902,13 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0700A', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:00:00', '8:00:00', '5', '徐汇校区始发');</v>
+        <v>insert into Shift values('XMWD0700A', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:00:00', '8:00:00', '5', '徐汇校区始发');</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>133</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>185</v>
@@ -5883,16 +5917,16 @@
         <v>186</v>
       </c>
       <c r="F103" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>222</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J103" s="8" t="s">
         <v>195</v>
@@ -5901,13 +5935,13 @@
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0700B', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:00:00', '8:00:00', '5', '交大新村始发');</v>
+        <v>insert into Shift values('XMWD0700B', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:00:00', '8:00:00', '5', '交大新村始发');</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>185</v>
@@ -5916,16 +5950,16 @@
         <v>186</v>
       </c>
       <c r="F104" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>222</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J104" s="8" t="s">
         <v>196</v>
@@ -5934,13 +5968,13 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0730A', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '5', '徐汇校区始发');</v>
+        <v>insert into Shift values('XMWD0730A', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '5', '徐汇校区始发');</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>185</v>
@@ -5949,16 +5983,16 @@
         <v>186</v>
       </c>
       <c r="F105" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J105" s="8" t="s">
         <v>195</v>
@@ -5967,13 +6001,13 @@
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0730B', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '5', '交大新村始发');</v>
+        <v>insert into Shift values('XMWD0730B', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '5', '交大新村始发');</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>136</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>185</v>
@@ -5982,16 +6016,16 @@
         <v>186</v>
       </c>
       <c r="F106" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J106" s="8" t="s">
         <v>196</v>
@@ -6000,13 +6034,13 @@
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0730C', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '5', '田林始发');</v>
+        <v>insert into Shift values('XMWD0730C', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '5', '田林始发');</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>185</v>
@@ -6015,16 +6049,16 @@
         <v>186</v>
       </c>
       <c r="F107" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>203</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J107" s="8" t="s">
         <v>197</v>
@@ -6033,13 +6067,13 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0730D', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '5', '古美始发');</v>
+        <v>insert into Shift values('XMWD0730D', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '7:30:00', '8:30:00', '5', '古美始发');</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>185</v>
@@ -6048,16 +6082,16 @@
         <v>186</v>
       </c>
       <c r="F108" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>203</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J108" s="8" t="s">
         <v>198</v>
@@ -6066,13 +6100,13 @@
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0900A', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '9:00:00', '10:00:00', '5', '');</v>
+        <v>insert into Shift values('XMWD0900A', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '9:00:00', '10:00:00', '5', '');</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>139</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>185</v>
@@ -6081,28 +6115,28 @@
         <v>186</v>
       </c>
       <c r="F109" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD0900B', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '9:00:00', '10:00:00', '5', '');</v>
+        <v>insert into Shift values('XMWD0900B', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '9:00:00', '10:00:00', '5', '');</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>185</v>
@@ -6111,16 +6145,16 @@
         <v>186</v>
       </c>
       <c r="F110" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -6132,7 +6166,7 @@
         <v>141</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>185</v>
@@ -6141,16 +6175,16 @@
         <v>186</v>
       </c>
       <c r="F111" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -6162,7 +6196,7 @@
         <v>142</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>185</v>
@@ -6171,16 +6205,16 @@
         <v>186</v>
       </c>
       <c r="F112" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -6192,7 +6226,7 @@
         <v>143</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>185</v>
@@ -6201,16 +6235,16 @@
         <v>186</v>
       </c>
       <c r="F113" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J113" s="8" t="s">
         <v>201</v>
@@ -6219,13 +6253,13 @@
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1200B', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '12:00:00', '13:00:00', '5', '直达，途径交大新村');</v>
+        <v>insert into Shift values('XMWD1200B', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '12:00:00', '13:00:00', '5', '直达，途径交大新村');</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>185</v>
@@ -6234,16 +6268,16 @@
         <v>186</v>
       </c>
       <c r="F114" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J114" s="8" t="s">
         <v>201</v>
@@ -6252,13 +6286,13 @@
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1300A', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '13:00:00', '14:00:00', '5', '');</v>
+        <v>insert into Shift values('XMWD1300A', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '13:00:00', '14:00:00', '5', '');</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>185</v>
@@ -6267,28 +6301,28 @@
         <v>186</v>
       </c>
       <c r="F115" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1300B', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '13:00:00', '14:00:00', '5', '');</v>
+        <v>insert into Shift values('XMWD1300B', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '13:00:00', '14:00:00', '5', '');</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>185</v>
@@ -6297,28 +6331,28 @@
         <v>186</v>
       </c>
       <c r="F116" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1300C', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '13:00:00', '14:00:00', '5', '');</v>
+        <v>insert into Shift values('XMWD1300C', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '13:00:00', '14:00:00', '5', '');</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>185</v>
@@ -6327,28 +6361,28 @@
         <v>186</v>
       </c>
       <c r="F117" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1500A', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '15:00:00', '16:00:00', '5', '');</v>
+        <v>insert into Shift values('XMWD1500A', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '15:00:00', '16:00:00', '5', '');</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>185</v>
@@ -6357,28 +6391,28 @@
         <v>186</v>
       </c>
       <c r="F118" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1500B', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '15:00:00', '16:00:00', '5', '');</v>
+        <v>insert into Shift values('XMWD1500B', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '15:00:00', '16:00:00', '5', '');</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>185</v>
@@ -6387,28 +6421,28 @@
         <v>186</v>
       </c>
       <c r="F119" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1700A', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '17:00:00', '18:00:00', '5', '');</v>
+        <v>insert into Shift values('XMWD1700A', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '17:00:00', '18:00:00', '5', '');</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>185</v>
@@ -6417,28 +6451,28 @@
         <v>186</v>
       </c>
       <c r="F120" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1700B', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '17:00:00', '18:00:00', '5', '');</v>
+        <v>insert into Shift values('XMWD1700B', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '17:00:00', '18:00:00', '5', '');</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>185</v>
@@ -6447,28 +6481,28 @@
         <v>186</v>
       </c>
       <c r="F121" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD1700C', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '17:00:00', '18:00:00', '5', '');</v>
+        <v>insert into Shift values('XMWD1700C', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '17:00:00', '18:00:00', '5', '');</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>152</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>185</v>
@@ -6477,16 +6511,16 @@
         <v>186</v>
       </c>
       <c r="F122" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -6498,7 +6532,7 @@
         <v>153</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>185</v>
@@ -6507,16 +6541,16 @@
         <v>186</v>
       </c>
       <c r="F123" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -6528,7 +6562,7 @@
         <v>154</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>185</v>
@@ -6537,16 +6571,16 @@
         <v>186</v>
       </c>
       <c r="F124" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -6558,7 +6592,7 @@
         <v>155</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>185</v>
@@ -6567,28 +6601,28 @@
         <v>186</v>
       </c>
       <c r="F125" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD2000B', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '20:00:00', '21:00:00', '5', '');</v>
+        <v>insert into Shift values('XMWD2000B', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '20:00:00', '21:00:00', '5', '');</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>185</v>
@@ -6597,28 +6631,28 @@
         <v>186</v>
       </c>
       <c r="F126" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD2130A', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '21:30:00', '22:30:00', '5', '');</v>
+        <v>insert into Shift values('XMWD2130A', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '21:30:00', '22:30:00', '5', '');</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>157</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>185</v>
@@ -6627,28 +6661,28 @@
         <v>186</v>
       </c>
       <c r="F127" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWD2130B', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '21:30:00', '22:30:00', '5', '');</v>
+        <v>insert into Shift values('XMWD2130B', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWorkday', '21:30:00', '22:30:00', '5', '');</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>185</v>
@@ -6657,28 +6691,28 @@
         <v>186</v>
       </c>
       <c r="F128" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWE0830', '3','XuHuiToMinHang', '徐汇到闵行', 'NormalWeekendAndLegalHoliday', '8:30:00', '9:30:00', '5', '');</v>
+        <v>insert into Shift values('XMWE0830', '1','XuHuiToMinHang', '徐汇到闵行', 'NormalWeekendAndLegalHoliday', '8:30:00', '9:30:00', '5', '');</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>159</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>185</v>
@@ -6687,28 +6721,28 @@
         <v>186</v>
       </c>
       <c r="F129" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>210</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMWE1730', '4','XuHuiToMinHang', '徐汇到闵行', 'NormalWeekendAndLegalHoliday', '17:30:00', '18:30:00', '5', '');</v>
+        <v>insert into Shift values('XMWE1730', '2','XuHuiToMinHang', '徐汇到闵行', 'NormalWeekendAndLegalHoliday', '17:30:00', '18:30:00', '5', '');</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>185</v>
@@ -6717,28 +6751,28 @@
         <v>186</v>
       </c>
       <c r="F130" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>223</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Shift values('XMHD0730A', '1','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '5', '直达闵行，途径天钥、上中、罗阳');</v>
+        <v>insert into Shift values('XMHD0730A', '3','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '5', '直达闵行，途径天钥、上中、罗阳');</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>161</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>185</v>
@@ -6747,16 +6781,16 @@
         <v>186</v>
       </c>
       <c r="F131" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>204</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>202</v>
@@ -6765,13 +6799,13 @@
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" ref="A132:A152" si="2">CONCATENATE("insert into Shift values('",B132,"', '",C132,"','",D132,"', '",E132,"', '",F132,"', '",G132,"', '",H132,"', '",I132,"', '",J132,"');")</f>
-        <v>insert into Shift values('XMHD0730B', '2','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '5', '交大新村始发');</v>
+        <v>insert into Shift values('XMHD0730B', '1','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '5', '交大新村始发');</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>185</v>
@@ -6780,16 +6814,16 @@
         <v>186</v>
       </c>
       <c r="F132" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>204</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J132" s="8" t="s">
         <v>196</v>
@@ -6798,13 +6832,13 @@
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('XMHD0730C', '3','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '5', '田林始发');</v>
+        <v>insert into Shift values('XMHD0730C', '2','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '5', '田林始发');</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>163</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>185</v>
@@ -6813,16 +6847,16 @@
         <v>186</v>
       </c>
       <c r="F133" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>203</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>197</v>
@@ -6831,13 +6865,13 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('XMHD0730D', '4','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '5', '古美始发');</v>
+        <v>insert into Shift values('XMHD0730D', '3','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '7:30:00', '8:30:00', '5', '古美始发');</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>185</v>
@@ -6846,16 +6880,16 @@
         <v>186</v>
       </c>
       <c r="F134" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>203</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>198</v>
@@ -6870,7 +6904,7 @@
         <v>165</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>185</v>
@@ -6879,16 +6913,16 @@
         <v>186</v>
       </c>
       <c r="F135" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J135" s="8" t="s">
         <v>198</v>
@@ -6903,7 +6937,7 @@
         <v>166</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>185</v>
@@ -6912,16 +6946,16 @@
         <v>186</v>
       </c>
       <c r="F136" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -6933,7 +6967,7 @@
         <v>167</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>185</v>
@@ -6942,28 +6976,28 @@
         <v>186</v>
       </c>
       <c r="F137" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('XMHD2100', '4','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '21:00:00', '22:00:00', '5', '');</v>
+        <v>insert into Shift values('XMHD2100', '1','XuHuiToMinHang', '徐汇到闵行', 'HolidayWorkday', '21:00:00', '22:00:00', '5', '');</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>168</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>185</v>
@@ -6972,28 +7006,28 @@
         <v>186</v>
       </c>
       <c r="F138" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('XMHE0830', '1','XuHuiToMinHang', '徐汇到闵行', 'HolidayWeekend', '8:30:00', '9:30:00', '5', '');</v>
+        <v>insert into Shift values('XMHE0830', '2','XuHuiToMinHang', '徐汇到闵行', 'HolidayWeekend', '8:30:00', '9:30:00', '5', '');</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>185</v>
@@ -7002,28 +7036,28 @@
         <v>186</v>
       </c>
       <c r="F139" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>210</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('XMHE1730', '2','XuHuiToMinHang', '徐汇到闵行', 'HolidayWeekend', '17:30:00', '18:30:00', '5', '');</v>
+        <v>insert into Shift values('XMHE1730', '3','XuHuiToMinHang', '徐汇到闵行', 'HolidayWeekend', '17:30:00', '18:30:00', '5', '');</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>185</v>
@@ -7032,28 +7066,28 @@
         <v>186</v>
       </c>
       <c r="F140" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>223</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('QMWD0700', '3','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '7:00:00', '8:00:00', '5', '');</v>
+        <v>insert into Shift values('QMWD0700', '1','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '7:00:00', '8:00:00', '5', '');</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>171</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>187</v>
@@ -7062,28 +7096,28 @@
         <v>188</v>
       </c>
       <c r="F141" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>222</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('QMWD1110', '4','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '11:10:00', '12:10:00', '5', '');</v>
+        <v>insert into Shift values('QMWD1110', '2','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '11:10:00', '12:10:00', '5', '');</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>172</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>187</v>
@@ -7092,28 +7126,28 @@
         <v>188</v>
       </c>
       <c r="F142" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>224</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('QMWD1610', '1','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '16:10:00', '17:10:00', '5', '');</v>
+        <v>insert into Shift values('QMWD1610', '3','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '16:10:00', '17:10:00', '5', '');</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>187</v>
@@ -7122,28 +7156,28 @@
         <v>188</v>
       </c>
       <c r="F143" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>225</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('QMWD1950', '2','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '19:50:00', '20:50:00', '5', '');</v>
+        <v>insert into Shift values('QMWD1950', '1','QiBaoToMinHang', '七宝到闵行', 'NormalWorkday', '19:50:00', '20:50:00', '5', '');</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>187</v>
@@ -7152,28 +7186,28 @@
         <v>188</v>
       </c>
       <c r="F144" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>226</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('QMHD0800', '3','QiBaoToMinHang', '七宝到闵行', 'HolidayWorkday', '8:00:00', '9:00:00', '5', '');</v>
+        <v>insert into Shift values('QMHD0800', '2','QiBaoToMinHang', '七宝到闵行', 'HolidayWorkday', '8:00:00', '9:00:00', '5', '');</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>187</v>
@@ -7182,28 +7216,28 @@
         <v>188</v>
       </c>
       <c r="F145" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>206</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('QMHD1610', '4','QiBaoToMinHang', '七宝到闵行', 'HolidayWorkday', '16:10:00', '17:10:00', '5', '');</v>
+        <v>insert into Shift values('QMHD1610', '3','QiBaoToMinHang', '七宝到闵行', 'HolidayWorkday', '16:10:00', '17:10:00', '5', '');</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>187</v>
@@ -7212,16 +7246,16 @@
         <v>188</v>
       </c>
       <c r="F146" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>225</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -7233,7 +7267,7 @@
         <v>175</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>190</v>
@@ -7242,16 +7276,16 @@
         <v>189</v>
       </c>
       <c r="F147" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>206</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -7263,7 +7297,7 @@
         <v>176</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>190</v>
@@ -7272,16 +7306,16 @@
         <v>189</v>
       </c>
       <c r="F148" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>227</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -7293,7 +7327,7 @@
         <v>177</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>190</v>
@@ -7302,28 +7336,28 @@
         <v>189</v>
       </c>
       <c r="F149" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>228</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('MQWD2030', '4','MinHangToQiBao', '闵行到七宝', 'NormalWorkday', '20:30:00', '21:30:00', '5', '');</v>
+        <v>insert into Shift values('MQWD2030', '1','MinHangToQiBao', '闵行到七宝', 'NormalWorkday', '20:30:00', '21:30:00', '5', '');</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>178</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>190</v>
@@ -7332,28 +7366,28 @@
         <v>189</v>
       </c>
       <c r="F150" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>229</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('MQHD0850', '1','MinHangToQiBao', '闵行到七宝', 'HolidayWorkday', '8:50:00', '9:50:00', '5', '');</v>
+        <v>insert into Shift values('MQHD0850', '2','MinHangToQiBao', '闵行到七宝', 'HolidayWorkday', '8:50:00', '9:50:00', '5', '');</v>
       </c>
       <c r="B151" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>190</v>
@@ -7362,28 +7396,28 @@
         <v>189</v>
       </c>
       <c r="F151" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>211</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Shift values('MQHD1700', '2','MinHangToQiBao', '闵行到七宝', 'HolidayWorkday', '17:00:00', '18:00:00', '5', '');</v>
+        <v>insert into Shift values('MQHD1700', '3','MinHangToQiBao', '闵行到七宝', 'HolidayWorkday', '17:00:00', '18:00:00', '5', '');</v>
       </c>
       <c r="B152" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>190</v>
@@ -7392,16 +7426,16 @@
         <v>189</v>
       </c>
       <c r="F152" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>228</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -7416,26 +7450,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEB99EF-93F5-4127-BC61-2E8E73D755DF}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" customWidth="1"/>
+    <col min="1" max="1" width="56.77734375" customWidth="1"/>
     <col min="2" max="2" width="14.21875" style="15" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="15"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="12.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" customWidth="1"/>
+    <col min="8" max="9" width="21.44140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -7443,8 +7477,10 @@
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
@@ -7455,22 +7491,28 @@
         <v>2</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>CONCATENATE("insert into Appointment values('",B3,"', '",C3,"', '",D3,"', '",E3,"', '",F3,"', '",G3,"', '",H3,"');")</f>
-        <v>insert into Appointment values('1', '1', 'LLAW0825', '姚子航', '2018-06-30', 'LoopLineAntiClockwise', '1');</v>
+        <f>CONCATENATE("insert into Appointment values('",B3,"', '",C3,"', '",D3,"', '",E3,"', '",F3,"', '",G3,"', '",H3,"', '",I3,"', '",J3,"');")</f>
+        <v>insert into Appointment values('1', '1', 'LLAW0825', '姚子航', '', '2018-06-30', 'LoopLineAntiClockwise', '2018-06-29 12:00:00', '1');</v>
       </c>
       <c r="B3" s="15">
         <v>1</v>
@@ -7482,22 +7524,26 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G3" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H3">
+      <c r="I3" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>CONCATENATE("insert into Appointment values('",B4,"', '",C4,"', '",D4,"', '",E4,"', '",F4,"', '",G4,"', '",H4,"');")</f>
-        <v>insert into Appointment values('2', '2', 'LLAW0840', '王鑫伟', '2018-07-01', 'LoopLineAntiClockwise', '1');</v>
+        <f t="shared" ref="A4:A18" si="0">CONCATENATE("insert into Appointment values('",B4,"', '",C4,"', '",D4,"', '",E4,"', '",F4,"', '",G4,"', '",H4,"', '",I4,"', '",J4,"');")</f>
+        <v>insert into Appointment values('2', '2', 'LLAW0840', '王鑫伟', '', '2018-07-01', 'LoopLineAntiClockwise', '2018-06-29 12:00:01', '1');</v>
       </c>
       <c r="B4" s="15">
         <v>2</v>
@@ -7509,22 +7555,26 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G4" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f t="shared" ref="A5:A18" si="0">CONCATENATE("insert into Appointment values('",B5,"', '",C5,"', '",D5,"', '",E5,"', '",F5,"', '",G5,"', '",H5,"');")</f>
-        <v>insert into Appointment values('3', '3', 'MQWD0800', '励颖', '2018-07-02', 'MinHangToQiBao', '1');</v>
+        <f t="shared" si="0"/>
+        <v>insert into Appointment values('3', '3', 'MQWD0800', '励颖', '', '2018-07-02', 'MinHangToQiBao', '2018-06-29 12:00:02', '1');</v>
       </c>
       <c r="B5" s="15">
         <v>3</v>
@@ -7536,22 +7586,26 @@
         <v>175</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G5" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="H5">
+      <c r="I5" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('4', '4', 'MQWD1220', '王一林', '2018-07-03', 'MinHangToQiBao', '1');</v>
+        <v>insert into Appointment values('4', '4', 'MQWD1220', '王一林', '', '2018-07-03', 'MinHangToQiBao', '2018-06-29 12:00:03', '1');</v>
       </c>
       <c r="B6" s="15">
         <v>4</v>
@@ -7563,22 +7617,26 @@
         <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G6" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="J6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('5', '5', 'MQWD1700', '沈备军', '2018-07-04', 'MinHangToQiBao', '1');</v>
+        <v>insert into Appointment values('5', '5', 'MQWD1700', '沈备军', '', '2018-07-04', 'MinHangToQiBao', '2018-06-29 12:00:04', '1');</v>
       </c>
       <c r="B7" s="15">
         <v>5</v>
@@ -7590,22 +7648,26 @@
         <v>177</v>
       </c>
       <c r="E7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G7" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="H7">
+      <c r="I7" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('6', '6', 'MQWD2030', '任锐', '2018-07-05', 'MinHangToQiBao', '1');</v>
+        <v>insert into Appointment values('6', '6', 'MQWD2030', '任锐', '', '2018-07-05', 'MinHangToQiBao', '2018-06-29 12:00:05', '1');</v>
       </c>
       <c r="B8" s="15">
         <v>6</v>
@@ -7617,22 +7679,26 @@
         <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>329</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G8" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="H8">
+      <c r="I8" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('7', '7', 'MQHD0850', '陈昊鹏', '2018-07-06', 'MinHangToQiBao', '0');</v>
+        <v>insert into Appointment values('7', '7', 'MQHD0850', '陈昊鹏', '', '2018-07-06', 'MinHangToQiBao', '2018-06-29 12:00:06', '0');</v>
       </c>
       <c r="B9" s="15">
         <v>7</v>
@@ -7641,25 +7707,29 @@
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>330</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G9" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="H9">
+      <c r="I9" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('8', '1', 'MXHD0730', '姚子航', '2018-07-07', 'MinHangToXuHui', '1');</v>
+        <v>insert into Appointment values('8', '1', 'MXHD0730', '姚子航', '', '2018-07-07', 'MinHangToXuHui', '2018-06-29 12:00:07', '1');</v>
       </c>
       <c r="B10" s="15">
         <v>8</v>
@@ -7671,22 +7741,26 @@
         <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G10" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="H10">
+      <c r="I10" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('9', '2', 'MXHD1215', '王鑫伟', '2018-07-08', 'MinHangToXuHui', '1');</v>
+        <v>insert into Appointment values('9', '2', 'MXHD1215', '王鑫伟', '', '2018-07-08', 'MinHangToXuHui', '2018-06-29 12:00:08', '1');</v>
       </c>
       <c r="B11" s="15">
         <v>9</v>
@@ -7698,22 +7772,26 @@
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>325</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G11" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="H11">
+      <c r="I11" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('10', '3', 'MXHD1630A', '励颖', '2018-07-09', 'MinHangToXuHui', '1');</v>
+        <v>insert into Appointment values('10', '3', 'MXHD1630A', '励颖', '', '2018-07-09', 'MinHangToXuHui', '2018-06-29 12:00:09', '1');</v>
       </c>
       <c r="B12" s="15">
         <v>10</v>
@@ -7725,22 +7803,26 @@
         <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>326</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="G12" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="H12">
+      <c r="I12" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('11', '4', 'MXHD1630B', '王一林', '2018-07-10', 'MinHangToXuHui', '1');</v>
+        <v>insert into Appointment values('11', '4', 'MXHD1630B', '王一林', '', '2018-07-10', 'MinHangToXuHui', '2018-06-29 12:00:10', '1');</v>
       </c>
       <c r="B13" s="15">
         <v>11</v>
@@ -7752,22 +7834,26 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>327</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G13" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="H13">
+      <c r="I13" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="J13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('12', '5', 'MXHD1630C', '沈备军', '2018-07-11', 'MinHangToXuHui', '0');</v>
+        <v>insert into Appointment values('12', '5', 'MXHD1630C', '沈备军', '', '2018-07-11', 'MinHangToXuHui', '2018-06-29 12:00:11', '0');</v>
       </c>
       <c r="B14" s="15">
         <v>12</v>
@@ -7779,22 +7865,26 @@
         <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>328</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="H14">
+      <c r="I14" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="J14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('13', '6', 'MXHD1730', '任锐', '2018-07-12', 'MinHangToXuHui', '0');</v>
+        <v>insert into Appointment values('13', '6', 'MXHD1730', '任锐', '', '2018-07-12', 'MinHangToXuHui', '2018-06-29 12:00:12', '0');</v>
       </c>
       <c r="B15" s="15">
         <v>13</v>
@@ -7806,22 +7896,26 @@
         <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>329</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G15" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="H15">
+      <c r="I15" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('14', '7', 'MXHD2000', '陈昊鹏', '2018-07-13', 'MinHangToXuHui', '0');</v>
+        <v>insert into Appointment values('14', '7', 'MXHD2000', '陈昊鹏', '', '2018-07-13', 'MinHangToXuHui', '2018-06-29 12:00:13', '0');</v>
       </c>
       <c r="B16" s="15">
         <v>14</v>
@@ -7833,22 +7927,26 @@
         <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>330</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G16" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="H16">
+      <c r="I16" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('15', '1', 'MXHE0730', '姚子航', '2018-07-14', 'MinHangToXuHui', '1');</v>
+        <v>insert into Appointment values('15', '1', 'MXHE0730', '姚子航', '', '2018-07-14', 'MinHangToXuHui', '2018-06-29 12:00:14', '1');</v>
       </c>
       <c r="B17" s="15">
         <v>15</v>
@@ -7860,22 +7958,26 @@
         <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G17" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="H17">
+      <c r="I17" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('16', '2', 'MXHE1630', '王鑫伟', '2018-07-15', 'MinHangToXuHui', '1');</v>
+        <v>insert into Appointment values('16', '2', 'MXHE1630', '王鑫伟', '', '2018-07-15', 'MinHangToXuHui', '2018-06-29 12:00:15', '1');</v>
       </c>
       <c r="B18" s="15">
         <v>16</v>
@@ -7887,21 +7989,25 @@
         <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>325</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="H18">
+      <c r="I18" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="J18">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7934,7 +8040,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -7949,10 +8055,10 @@
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>2</v>
@@ -7961,25 +8067,25 @@
         <v>231</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7991,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>33</v>
@@ -8003,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H3">
         <v>50</v>

--- a/database design/mysql/insert 数据表.xlsx
+++ b/database design/mysql/insert 数据表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{18863831-77A6-4DF1-9DA0-2C4E62AE94E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4C604E28-18CA-4BBF-BC1F-32533C1BB476}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Administrator" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="428">
   <si>
     <t>appointment_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1672,6 +1672,37 @@
   </si>
   <si>
     <t>沪D41683</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_name_cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MXWD1700A</t>
+  </si>
+  <si>
+    <t>MXWD1700A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MXWD1700B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MXWD1700C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚子航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鑫伟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2160,7 +2191,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2383,7 +2414,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2816,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1F9F45-FCED-43F1-84F8-296F483D4CF4}">
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A152"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7450,24 +7481,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEB99EF-93F5-4127-BC61-2E8E73D755DF}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.77734375" customWidth="1"/>
+    <col min="1" max="1" width="57.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.21875" style="15" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="15"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.21875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="9" width="21.44140625" style="8" customWidth="1"/>
+    <col min="5" max="7" width="12.21875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="19" style="8" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
         <v>235</v>
       </c>
@@ -7479,8 +7512,10 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
@@ -7494,25 +7529,31 @@
         <v>386</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>CONCATENATE("insert into Appointment values('",B3,"', '",C3,"', '",D3,"', '",E3,"', '",F3,"', '",G3,"', '",H3,"', '",I3,"', '",J3,"');")</f>
-        <v>insert into Appointment values('1', '1', 'LLAW0825', '姚子航', '', '2018-06-30', 'LoopLineAntiClockwise', '2018-06-29 12:00:00', '1');</v>
+        <f>CONCATENATE("insert into Appointment values('",B3,"', '",C3,"', '",D3,"', '",E3,"', '",F3,"', '",G3,"', '",H3,"', '",I3,"', '",J3,"', '",K3,"', '",L3,"');")</f>
+        <v>insert into Appointment values('1', '1', 'MXWD1700A', 'yzh', '姚子航', '', '2018-06-30', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:00', '1');</v>
       </c>
       <c r="B3" s="15">
         <v>1</v>
@@ -7521,29 +7562,35 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>319</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" s="2" t="s">
+      <c r="G3"/>
+      <c r="H3" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A18" si="0">CONCATENATE("insert into Appointment values('",B4,"', '",C4,"', '",D4,"', '",E4,"', '",F4,"', '",G4,"', '",H4,"', '",I4,"', '",J4,"');")</f>
-        <v>insert into Appointment values('2', '2', 'LLAW0840', '王鑫伟', '', '2018-07-01', 'LoopLineAntiClockwise', '2018-06-29 12:00:01', '1');</v>
+        <f t="shared" ref="A4:A18" si="0">CONCATENATE("insert into Appointment values('",B4,"', '",C4,"', '",D4,"', '",E4,"', '",F4,"', '",G4,"', '",H4,"', '",I4,"', '",J4,"', '",K4,"', '",L4,"');")</f>
+        <v>insert into Appointment values('2', '2', 'MXWD1700A', 'wxw', '王鑫伟', '', '2018-07-01', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:01', '1');</v>
       </c>
       <c r="B4" s="15">
         <v>2</v>
@@ -7552,29 +7599,35 @@
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>38</v>
+        <v>423</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>320</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" s="2" t="s">
+      <c r="G4"/>
+      <c r="H4" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('3', '3', 'MQWD0800', '励颖', '', '2018-07-02', 'MinHangToQiBao', '2018-06-29 12:00:02', '1');</v>
+        <v>insert into Appointment values('3', '3', 'MXWD1700A', 'ly', '励颖', '', '2018-07-02', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:02', '1');</v>
       </c>
       <c r="B5" s="15">
         <v>3</v>
@@ -7583,29 +7636,35 @@
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>175</v>
+        <v>422</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>321</v>
       </c>
-      <c r="F5"/>
-      <c r="G5" s="2" t="s">
+      <c r="G5"/>
+      <c r="H5" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('4', '4', 'MQWD1220', '王一林', '', '2018-07-03', 'MinHangToQiBao', '2018-06-29 12:00:03', '1');</v>
+        <v>insert into Appointment values('4', '4', 'MXWD1700B', 'wyl', '王一林', '', '2018-07-03', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:03', '1');</v>
       </c>
       <c r="B6" s="15">
         <v>4</v>
@@ -7614,29 +7673,35 @@
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>322</v>
       </c>
-      <c r="F6"/>
-      <c r="G6" s="2" t="s">
+      <c r="G6"/>
+      <c r="H6" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('5', '5', 'MQWD1700', '沈备军', '', '2018-07-04', 'MinHangToQiBao', '2018-06-29 12:00:04', '1');</v>
+        <v>insert into Appointment values('5', '5', 'MXWD1700B', 'sbj', '沈备军', '', '2018-07-04', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:04', '1');</v>
       </c>
       <c r="B7" s="15">
         <v>5</v>
@@ -7645,29 +7710,35 @@
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>177</v>
+        <v>424</v>
       </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>323</v>
       </c>
-      <c r="F7"/>
-      <c r="G7" s="2" t="s">
+      <c r="G7"/>
+      <c r="H7" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('6', '6', 'MQWD2030', '任锐', '', '2018-07-05', 'MinHangToQiBao', '2018-06-29 12:00:05', '1');</v>
+        <v>insert into Appointment values('6', '6', 'MXWD1700C', 'rr', '任锐', '', '2018-07-05', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:05', '1');</v>
       </c>
       <c r="B8" s="15">
         <v>6</v>
@@ -7676,29 +7747,35 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>178</v>
+        <v>425</v>
       </c>
       <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
         <v>324</v>
       </c>
-      <c r="F8"/>
-      <c r="G8" s="2" t="s">
+      <c r="G8"/>
+      <c r="H8" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('7', '7', 'MQHD0850', '陈昊鹏', '', '2018-07-06', 'MinHangToQiBao', '2018-06-29 12:00:06', '0');</v>
+        <v>insert into Appointment values('7', '7', 'MXWD1700C', 'chp', '陈昊鹏', '', '2018-07-06', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:06', '0');</v>
       </c>
       <c r="B9" s="15">
         <v>7</v>
@@ -7707,29 +7784,35 @@
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>311</v>
+        <v>425</v>
       </c>
       <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
         <v>325</v>
       </c>
-      <c r="F9"/>
-      <c r="G9" s="2" t="s">
+      <c r="G9"/>
+      <c r="H9" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('8', '1', 'MXHD0730', '姚子航', '', '2018-07-07', 'MinHangToXuHui', '2018-06-29 12:00:07', '1');</v>
+        <v>insert into Appointment values('8', '1', 'MXWD1700A', 'yzh', '姚子航', '', '2018-07-07', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:07', '1');</v>
       </c>
       <c r="B10" s="15">
         <v>8</v>
@@ -7738,29 +7821,35 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>122</v>
+        <v>422</v>
       </c>
       <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>319</v>
       </c>
-      <c r="F10"/>
-      <c r="G10" s="2" t="s">
+      <c r="G10"/>
+      <c r="H10" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('9', '2', 'MXHD1215', '王鑫伟', '', '2018-07-08', 'MinHangToXuHui', '2018-06-29 12:00:08', '1');</v>
+        <v>insert into Appointment values('9', '2', 'MXWD1700A', 'wxw', '王鑫伟', '', '2018-07-08', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:08', '1');</v>
       </c>
       <c r="B11" s="15">
         <v>9</v>
@@ -7769,29 +7858,35 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>123</v>
+        <v>422</v>
       </c>
       <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>320</v>
       </c>
-      <c r="F11"/>
-      <c r="G11" s="2" t="s">
+      <c r="G11"/>
+      <c r="H11" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" t="s">
+        <v>184</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('10', '3', 'MXHD1630A', '励颖', '', '2018-07-09', 'MinHangToXuHui', '2018-06-29 12:00:09', '1');</v>
+        <v>insert into Appointment values('10', '3', 'MXWD1700B', 'ly', '励颖', '', '2018-07-09', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:09', '1');</v>
       </c>
       <c r="B12" s="15">
         <v>10</v>
@@ -7800,29 +7895,35 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>124</v>
+        <v>424</v>
       </c>
       <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>321</v>
       </c>
-      <c r="F12"/>
-      <c r="G12" s="2" t="s">
+      <c r="G12"/>
+      <c r="H12" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" t="s">
+        <v>184</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('11', '4', 'MXHD1630B', '王一林', '', '2018-07-10', 'MinHangToXuHui', '2018-06-29 12:00:10', '1');</v>
+        <v>insert into Appointment values('11', '4', 'MXWD1700B', 'wyl', '王一林', '', '2018-07-10', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:10', '1');</v>
       </c>
       <c r="B13" s="15">
         <v>11</v>
@@ -7831,29 +7932,35 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>125</v>
+        <v>424</v>
       </c>
       <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
         <v>322</v>
       </c>
-      <c r="F13"/>
-      <c r="G13" s="2" t="s">
+      <c r="G13"/>
+      <c r="H13" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('12', '5', 'MXHD1630C', '沈备军', '', '2018-07-11', 'MinHangToXuHui', '2018-06-29 12:00:11', '0');</v>
+        <v>insert into Appointment values('12', '5', 'MXWD1700C', 'sbj', '沈备军', '', '2018-07-11', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:11', '0');</v>
       </c>
       <c r="B14" s="15">
         <v>12</v>
@@ -7862,29 +7969,35 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>126</v>
+        <v>425</v>
       </c>
       <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
         <v>323</v>
       </c>
-      <c r="F14"/>
-      <c r="G14" s="2" t="s">
+      <c r="G14"/>
+      <c r="H14" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I14" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('13', '6', 'MXHD1730', '任锐', '', '2018-07-12', 'MinHangToXuHui', '2018-06-29 12:00:12', '0');</v>
+        <v>insert into Appointment values('13', '6', 'MXWD1700C', 'rr', '任锐', '', '2018-07-12', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:12', '0');</v>
       </c>
       <c r="B15" s="15">
         <v>13</v>
@@ -7893,29 +8006,35 @@
         <v>6</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>127</v>
+        <v>425</v>
       </c>
       <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
         <v>324</v>
       </c>
-      <c r="F15"/>
-      <c r="G15" s="2" t="s">
+      <c r="G15"/>
+      <c r="H15" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" t="s">
+        <v>184</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('14', '7', 'MXHD2000', '陈昊鹏', '', '2018-07-13', 'MinHangToXuHui', '2018-06-29 12:00:13', '0');</v>
+        <v>insert into Appointment values('14', '7', 'MXWD1700C', 'chp', '陈昊鹏', '', '2018-07-13', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:13', '0');</v>
       </c>
       <c r="B16" s="15">
         <v>14</v>
@@ -7924,29 +8043,35 @@
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>128</v>
+        <v>425</v>
       </c>
       <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
         <v>325</v>
       </c>
-      <c r="F16"/>
-      <c r="G16" s="2" t="s">
+      <c r="G16"/>
+      <c r="H16" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('15', '1', 'MXHE0730', '姚子航', '', '2018-07-14', 'MinHangToXuHui', '2018-06-29 12:00:14', '1');</v>
+        <v>insert into Appointment values('15', '1', 'MXWD1700A', 'yzh', '姚子航', '', '2018-07-14', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:14', '1');</v>
       </c>
       <c r="B17" s="15">
         <v>15</v>
@@ -7954,30 +8079,36 @@
       <c r="C17" s="15">
         <v>1</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>129</v>
+      <c r="D17" s="5" t="s">
+        <v>422</v>
       </c>
       <c r="E17" t="s">
-        <v>319</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>426</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Appointment values('16', '2', 'MXHE1630', '王鑫伟', '', '2018-07-15', 'MinHangToXuHui', '2018-06-29 12:00:15', '1');</v>
+        <v>insert into Appointment values('16', '2', 'MXWD1700A', 'wxw', '王鑫伟', '', '2018-07-15', 'MinHangToXuHui', '闵行到徐汇', '2018-06-29 12:00:15', '1');</v>
       </c>
       <c r="B18" s="15">
         <v>16</v>
@@ -7985,29 +8116,35 @@
       <c r="C18" s="15">
         <v>2</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>130</v>
+      <c r="D18" s="5" t="s">
+        <v>422</v>
       </c>
       <c r="E18" t="s">
-        <v>320</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>427</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
